--- a/RegenSolver/enginefiles/solverdatageometry.xlsx
+++ b/RegenSolver/enginefiles/solverdatageometry.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,19 +414,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2804964240234751</v>
+        <v>0.2835788023094474</v>
       </c>
       <c r="C2">
-        <v>0.03112434574304199</v>
+        <v>0.03195026651553548</v>
       </c>
       <c r="D2">
-        <v>0.002624692673670607</v>
+        <v>0.01123956085032268</v>
       </c>
       <c r="E2">
-        <v>0.0136859974002598</v>
+        <v>0.003069422861113039</v>
       </c>
       <c r="F2">
-        <v>0.00331116810549084</v>
+        <v>0.00736992445354484</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -434,19 +434,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2774140457375029</v>
+        <v>0.2804964240234751</v>
       </c>
       <c r="C3">
-        <v>0.03029842497054849</v>
+        <v>0.03112434574304199</v>
       </c>
       <c r="D3">
-        <v>0.002577583926276266</v>
+        <v>0.01000531677654681</v>
       </c>
       <c r="E3">
-        <v>0.01336165907134571</v>
+        <v>0.00298293264006928</v>
       </c>
       <c r="F3">
-        <v>0.003291992132247409</v>
+        <v>0.006547291861419733</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -454,19 +454,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2743316674515306</v>
+        <v>0.2774140457375029</v>
       </c>
       <c r="C4">
-        <v>0.029472504198055</v>
+        <v>0.03029842497054849</v>
       </c>
       <c r="D4">
-        <v>0.002518863296137357</v>
+        <v>0.008912343935593692</v>
       </c>
       <c r="E4">
-        <v>0.01303732074243161</v>
+        <v>0.002896442419025522</v>
       </c>
       <c r="F4">
-        <v>0.003250339796601124</v>
+        <v>0.005809895099225876</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -474,19 +474,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2712492891655584</v>
+        <v>0.2743316674515306</v>
       </c>
       <c r="C5">
-        <v>0.02864658342556152</v>
+        <v>0.029472504198055</v>
       </c>
       <c r="D5">
-        <v>0.002448904716257735</v>
+        <v>0.007941593847992413</v>
       </c>
       <c r="E5">
-        <v>0.01271298241351752</v>
+        <v>0.002809952197981762</v>
       </c>
       <c r="F5">
-        <v>0.003186812348913251</v>
+        <v>0.005148374855221433</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -494,19 +494,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2681669108795861</v>
+        <v>0.2712492891655584</v>
       </c>
       <c r="C6">
-        <v>0.02782066265306801</v>
+        <v>0.02864658342556152</v>
       </c>
       <c r="D6">
-        <v>0.002367917650844442</v>
+        <v>0.007077018891383948</v>
       </c>
       <c r="E6">
-        <v>0.01238864408460342</v>
+        <v>0.002723461976938006</v>
       </c>
       <c r="F6">
-        <v>0.003102277347292874</v>
+        <v>0.004554573613613691</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -514,19 +514,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2650845325936139</v>
+        <v>0.2681669108795861</v>
       </c>
       <c r="C7">
-        <v>0.02699474188057452</v>
+        <v>0.02782066265306801</v>
       </c>
       <c r="D7">
-        <v>0.002276266609389782</v>
+        <v>0.006305019515443807</v>
       </c>
       <c r="E7">
-        <v>0.01206430575568932</v>
+        <v>0.002636971755894245</v>
       </c>
       <c r="F7">
-        <v>0.00299786410517</v>
+        <v>0.004021347119569489</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -534,19 +534,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2620021543076416</v>
+        <v>0.2650845325936139</v>
       </c>
       <c r="C8">
-        <v>0.02616882110808103</v>
+        <v>0.02699474188057452</v>
       </c>
       <c r="D8">
-        <v>0.002174465449434857</v>
+        <v>0.005614000588645147</v>
       </c>
       <c r="E8">
-        <v>0.01173996742677523</v>
+        <v>0.002550481534850486</v>
       </c>
       <c r="F8">
-        <v>0.002874947708711645</v>
+        <v>0.003542408082464203</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -554,19 +554,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2589197760216694</v>
+        <v>0.2620021543076416</v>
       </c>
       <c r="C9">
-        <v>0.02534290033558753</v>
+        <v>0.02616882110808103</v>
       </c>
       <c r="D9">
-        <v>0.002063159046447929</v>
+        <v>0.004994010799898742</v>
       </c>
       <c r="E9">
-        <v>0.01141562909786113</v>
+        <v>0.002463991313806728</v>
       </c>
       <c r="F9">
-        <v>0.002735118715470751</v>
+        <v>0.003112194912434481</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -574,19 +574,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2558373977356971</v>
+        <v>0.2589197760216694</v>
       </c>
       <c r="C10">
-        <v>0.02451697956309404</v>
+        <v>0.02534290033558753</v>
       </c>
       <c r="D10">
-        <v>0.001943089455345807</v>
+        <v>0.004436443671906931</v>
       </c>
       <c r="E10">
-        <v>0.01109129076894704</v>
+        <v>0.002377501092762969</v>
       </c>
       <c r="F10">
-        <v>0.002580134075438619</v>
+        <v>0.002725759255967703</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -594,19 +594,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2527550194497248</v>
+        <v>0.2558373977356971</v>
       </c>
       <c r="C11">
-        <v>0.02369105879060053</v>
+        <v>0.02451697956309404</v>
       </c>
       <c r="D11">
-        <v>0.001815039027810379</v>
+        <v>0.003933780971567453</v>
       </c>
       <c r="E11">
-        <v>0.01076695244003294</v>
+        <v>0.002291010871719209</v>
       </c>
       <c r="F11">
-        <v>0.002411840934956735</v>
+        <v>0.002378666209604144</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -614,19 +614,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2496726411637526</v>
+        <v>0.2527550194497248</v>
       </c>
       <c r="C12">
-        <v>0.02286513801810705</v>
+        <v>0.02369105879060053</v>
       </c>
       <c r="D12">
-        <v>0.001679734418048687</v>
+        <v>0.003479357644122252</v>
       </c>
       <c r="E12">
-        <v>0.01044261411111884</v>
+        <v>0.002204520650675449</v>
       </c>
       <c r="F12">
-        <v>0.002232054929440348</v>
+        <v>0.002066899738770377</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -634,19 +634,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2465902628777804</v>
+        <v>0.2496726411637526</v>
       </c>
       <c r="C13">
-        <v>0.02203921724561356</v>
+        <v>0.02286513801810705</v>
       </c>
       <c r="D13">
-        <v>0.001537671734644897</v>
+        <v>0.003067117776445318</v>
       </c>
       <c r="E13">
-        <v>0.01011827578220475</v>
+        <v>0.002118030429631692</v>
       </c>
       <c r="F13">
-        <v>0.002042346088922695</v>
+        <v>0.001786761118420613</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -654,19 +654,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2435078845918081</v>
+        <v>0.2465902628777804</v>
       </c>
       <c r="C14">
-        <v>0.02121329647312005</v>
+        <v>0.02203921724561356</v>
       </c>
       <c r="D14">
-        <v>0.001388746472384503</v>
+        <v>0.00269129971451381</v>
       </c>
       <c r="E14">
-        <v>0.009793937453290647</v>
+        <v>0.002031540208587933</v>
       </c>
       <c r="F14">
-        <v>0.001843591624989353</v>
+        <v>0.001534733902956449</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -674,19 +674,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2404255063058358</v>
+        <v>0.2435078845918081</v>
       </c>
       <c r="C15">
-        <v>0.02038737570062656</v>
+        <v>0.02121329647312005</v>
       </c>
       <c r="D15">
-        <v>0.001231253177568509</v>
+        <v>0.002345881515107079</v>
       </c>
       <c r="E15">
-        <v>0.009469599124376551</v>
+        <v>0.001945049987544173</v>
       </c>
       <c r="F15">
-        <v>0.001634757729312856</v>
+        <v>0.001307240704553732</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -694,19 +694,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2373431280198636</v>
+        <v>0.2404255063058358</v>
       </c>
       <c r="C16">
-        <v>0.01956145492813306</v>
+        <v>0.02038737570062656</v>
       </c>
       <c r="D16">
-        <v>0.001057697019504345</v>
+        <v>0.002023161061402415</v>
       </c>
       <c r="E16">
-        <v>0.009145260795462457</v>
+        <v>0.001858559766500414</v>
       </c>
       <c r="F16">
-        <v>0.00140768272547635</v>
+        <v>0.001100010222100193</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -714,19 +714,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2342607497338913</v>
+        <v>0.2373431280198636</v>
       </c>
       <c r="C17">
-        <v>0.01911027116091851</v>
+        <v>0.01956145492813306</v>
       </c>
       <c r="D17">
-        <v>0.0007464404318504373</v>
+        <v>0.001707734577503697</v>
       </c>
       <c r="E17">
-        <v>0.008968081344399931</v>
+        <v>0.001772069545456655</v>
       </c>
       <c r="F17">
-        <v>0.00101684124860447</v>
+        <v>0.0009053521563015857</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -734,19 +734,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2311783714479191</v>
+        <v>0.2342607497338913</v>
       </c>
       <c r="C18">
-        <v>0.02088988309406883</v>
+        <v>0.01911027116091851</v>
       </c>
       <c r="D18">
-        <v>0.0006874667975817705</v>
+        <v>0.001218077766272745</v>
       </c>
       <c r="E18">
-        <v>0.009666933316328154</v>
+        <v>0.001724821691839982</v>
       </c>
       <c r="F18">
-        <v>0.001027937691604744</v>
+        <v>0.0006514576687856235</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -754,19 +754,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2280959931619468</v>
+        <v>0.2311783714479191</v>
       </c>
       <c r="C19">
-        <v>0.02266949502721918</v>
+        <v>0.02088988309406883</v>
       </c>
       <c r="D19">
-        <v>0.0006999621167678775</v>
+        <v>0.001180317897014037</v>
       </c>
       <c r="E19">
-        <v>0.01036578528825639</v>
+        <v>0.001911182217687508</v>
       </c>
       <c r="F19">
-        <v>0.001108807466491015</v>
+        <v>0.0006897390448762854</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -774,19 +774,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2250136148759746</v>
+        <v>0.2280959931619468</v>
       </c>
       <c r="C20">
-        <v>0.02444910696036953</v>
+        <v>0.02266949502721918</v>
       </c>
       <c r="D20">
-        <v>0.0007302041192930489</v>
+        <v>0.001227950137116804</v>
       </c>
       <c r="E20">
-        <v>0.01106463726018462</v>
+        <v>0.002097542743535037</v>
       </c>
       <c r="F20">
-        <v>0.001204448674373761</v>
+        <v>0.0007720860834913208</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -794,19 +794,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2219312365900023</v>
+        <v>0.2250136148759746</v>
       </c>
       <c r="C21">
-        <v>0.02622871889351988</v>
+        <v>0.02444910696036953</v>
       </c>
       <c r="D21">
-        <v>0.0007655991304903685</v>
+        <v>0.001294484742578536</v>
       </c>
       <c r="E21">
-        <v>0.01176348923211285</v>
+        <v>0.002283903269382566</v>
       </c>
       <c r="F21">
-        <v>0.001306059918255152</v>
+        <v>0.000868808986799901</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -814,19 +814,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2188488583040301</v>
+        <v>0.2219312365900023</v>
       </c>
       <c r="C22">
-        <v>0.0280083308266702</v>
+        <v>0.02622871889351988</v>
       </c>
       <c r="D22">
-        <v>0.0008020694814652737</v>
+        <v>0.001369682479631713</v>
       </c>
       <c r="E22">
-        <v>0.01246234120404108</v>
+        <v>0.002470263795230094</v>
       </c>
       <c r="F22">
-        <v>0.001410126417237198</v>
+        <v>0.0009754618321806099</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -834,19 +834,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2157664800180578</v>
+        <v>0.2188488583040301</v>
       </c>
       <c r="C23">
-        <v>0.02978794275982054</v>
+        <v>0.0280083308266702</v>
       </c>
       <c r="D23">
-        <v>0.0008381648817091642</v>
+        <v>0.001449889373698406</v>
       </c>
       <c r="E23">
-        <v>0.0131611931759693</v>
+        <v>0.00265662432107762</v>
       </c>
       <c r="F23">
-        <v>0.00151469725193685</v>
+        <v>0.001090450802385665</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -854,19 +854,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2126841017320855</v>
+        <v>0.2157664800180578</v>
       </c>
       <c r="C24">
-        <v>0.03156755469297089</v>
+        <v>0.02978794275982054</v>
       </c>
       <c r="D24">
-        <v>0.0008733075968190019</v>
+        <v>0.001533393440821631</v>
       </c>
       <c r="E24">
-        <v>0.01386004514789754</v>
+        <v>0.002842984846925148</v>
       </c>
       <c r="F24">
-        <v>0.001618467989370821</v>
+        <v>0.001213007932862424</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -874,19 +874,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2096017234461133</v>
+        <v>0.2126841017320855</v>
       </c>
       <c r="C25">
-        <v>0.03334716662612121</v>
+        <v>0.03156755469297089</v>
       </c>
       <c r="D25">
-        <v>0.0009072365879876124</v>
+        <v>0.001619263087855891</v>
       </c>
       <c r="E25">
-        <v>0.01455889711982576</v>
+        <v>0.003029345372772677</v>
       </c>
       <c r="F25">
-        <v>0.001720461451446275</v>
+        <v>0.001342694362838181</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -894,19 +894,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.206519345160141</v>
+        <v>0.2096017234461133</v>
       </c>
       <c r="C26">
-        <v>0.03512677855927156</v>
+        <v>0.03334716662612121</v>
       </c>
       <c r="D26">
-        <v>0.0009398242080659535</v>
+        <v>0.001706939717117927</v>
       </c>
       <c r="E26">
-        <v>0.01525774909175399</v>
+        <v>0.003215705898620203</v>
       </c>
       <c r="F26">
-        <v>0.001819891834415771</v>
+        <v>0.001479228766495999</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -914,19 +914,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.2034369668741688</v>
+        <v>0.206519345160141</v>
       </c>
       <c r="C27">
-        <v>0.03690639049242189</v>
+        <v>0.03512677855927156</v>
       </c>
       <c r="D27">
-        <v>0.000971007860720366</v>
+        <v>0.001796064483787533</v>
       </c>
       <c r="E27">
-        <v>0.01595660106368222</v>
+        <v>0.003402066424467731</v>
       </c>
       <c r="F27">
-        <v>0.001916098263537055</v>
+        <v>0.001622415158561564</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -934,19 +934,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.2003545885881965</v>
+        <v>0.2034369668741688</v>
       </c>
       <c r="C28">
-        <v>0.03868600242557224</v>
+        <v>0.03690639049242189</v>
       </c>
       <c r="D28">
-        <v>0.0010007600023456</v>
+        <v>0.001886394559814423</v>
       </c>
       <c r="E28">
-        <v>0.01665545303561045</v>
+        <v>0.003588426950315259</v>
       </c>
       <c r="F28">
-        <v>0.002008508711650859</v>
+        <v>0.001772108187467068</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -954,19 +954,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.1972722103022243</v>
+        <v>0.2003545885881965</v>
       </c>
       <c r="C29">
-        <v>0.04046561435872258</v>
+        <v>0.03868600242557224</v>
       </c>
       <c r="D29">
-        <v>0.00102907297606917</v>
+        <v>0.001977758747139886</v>
       </c>
       <c r="E29">
-        <v>0.01735430500753868</v>
+        <v>0.003774787476162788</v>
       </c>
       <c r="F29">
-        <v>0.002096618688934418</v>
+        <v>0.001928194736920391</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -974,19 +974,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.194189832016252</v>
+        <v>0.1972722103022243</v>
       </c>
       <c r="C30">
-        <v>0.04224522629187291</v>
+        <v>0.04046561435872258</v>
       </c>
       <c r="D30">
-        <v>0.001055950466327007</v>
+        <v>0.002070032242680598</v>
       </c>
       <c r="E30">
-        <v>0.01805315697946691</v>
+        <v>0.003961148002010316</v>
       </c>
       <c r="F30">
-        <v>0.002179977743425578</v>
+        <v>0.002090583406089871</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -994,19 +994,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.1911074537302798</v>
+        <v>0.194189832016252</v>
       </c>
       <c r="C31">
-        <v>0.04402483822502326</v>
+        <v>0.04224522629187291</v>
       </c>
       <c r="D31">
-        <v>0.001081402201562971</v>
+        <v>0.002163121479169514</v>
       </c>
       <c r="E31">
-        <v>0.01875200895139514</v>
+        <v>0.004147508527857843</v>
       </c>
       <c r="F31">
-        <v>0.002258180381958392</v>
+        <v>0.002259198117932249</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.1880250754443075</v>
+        <v>0.1911074537302798</v>
       </c>
       <c r="C32">
-        <v>0.04580445015817358</v>
+        <v>0.04402483822502326</v>
       </c>
       <c r="D32">
-        <v>0.001105440307457732</v>
+        <v>0.002256954604008654</v>
       </c>
       <c r="E32">
-        <v>0.01945086092332337</v>
+        <v>0.004333869053705372</v>
       </c>
       <c r="F32">
-        <v>0.002330859639355674</v>
+        <v>0.002433974036406801</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.1849426971583353</v>
+        <v>0.1880250754443075</v>
       </c>
       <c r="C33">
-        <v>0.04758406209132393</v>
+        <v>0.04580445015817358</v>
       </c>
       <c r="D33">
-        <v>0.001128076447723889</v>
+        <v>0.002351475274927634</v>
       </c>
       <c r="E33">
-        <v>0.0201497128952516</v>
+        <v>0.004520229579552898</v>
       </c>
       <c r="F33">
-        <v>0.002397682313811533</v>
+        <v>0.002614854846450544</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.181860318872363</v>
+        <v>0.1849426971583353</v>
       </c>
       <c r="C34">
-        <v>0.04936367402447427</v>
+        <v>0.04758406209132393</v>
       </c>
       <c r="D34">
-        <v>0.001149319204522551</v>
+        <v>0.002446638489759794</v>
       </c>
       <c r="E34">
-        <v>0.02084856486717982</v>
+        <v>0.004706590105400426</v>
       </c>
       <c r="F34">
-        <v>0.002458345296363846</v>
+        <v>0.002801790875666073</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.1787779405863907</v>
+        <v>0.181860318872363</v>
       </c>
       <c r="C35">
-        <v>0.05114328595762462</v>
+        <v>0.04936367402447427</v>
       </c>
       <c r="D35">
-        <v>0.001169171261048425</v>
+        <v>0.002542407708079244</v>
       </c>
       <c r="E35">
-        <v>0.02154741683910806</v>
+        <v>0.004892950631247953</v>
       </c>
       <c r="F35">
-        <v>0.002512572646750462</v>
+        <v>0.002994737756339128</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.1756955623004185</v>
+        <v>0.1787779405863907</v>
       </c>
       <c r="C36">
-        <v>0.05292289789077495</v>
+        <v>0.05114328595762462</v>
       </c>
       <c r="D36">
-        <v>0.001169742930525826</v>
+        <v>0.002638752818324801</v>
       </c>
       <c r="E36">
-        <v>0.02224626881103629</v>
+        <v>0.005079311157095483</v>
       </c>
       <c r="F36">
-        <v>0.002560113196166059</v>
+        <v>0.003193655446218755</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.1726131840144463</v>
+        <v>0.1756955623004185</v>
       </c>
       <c r="C37">
-        <v>0.05470250982392529</v>
+        <v>0.05292289789077495</v>
       </c>
       <c r="D37">
-        <v>0.001173508412784308</v>
+        <v>0.00273564867278473</v>
       </c>
       <c r="E37">
-        <v>0.02294512078296452</v>
+        <v>0.00526567168294301</v>
       </c>
       <c r="F37">
-        <v>0.002600738533743323</v>
+        <v>0.003398507494563323</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.169530805728474</v>
+        <v>0.1726131840144463</v>
       </c>
       <c r="C38">
-        <v>0.05648212175707563</v>
+        <v>0.05470250982392529</v>
       </c>
       <c r="D38">
-        <v>0.00117821446567861</v>
+        <v>0.002833074012746338</v>
       </c>
       <c r="E38">
-        <v>0.02364397275489275</v>
+        <v>0.005452032208790538</v>
       </c>
       <c r="F38">
-        <v>0.002634241280534164</v>
+        <v>0.003609260480268783</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.1664484274425017</v>
+        <v>0.169530805728474</v>
       </c>
       <c r="C39">
-        <v>0.05826173369022596</v>
+        <v>0.05648212175707563</v>
       </c>
       <c r="D39">
-        <v>0.001182493365814279</v>
+        <v>0.002931010667154558</v>
       </c>
       <c r="E39">
-        <v>0.02434282472682097</v>
+        <v>0.005638392734638066</v>
       </c>
       <c r="F39">
-        <v>0.002660433584555284</v>
+        <v>0.003825883573540224</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.1633660491565295</v>
+        <v>0.1664484274425017</v>
       </c>
       <c r="C40">
-        <v>0.0600413456233763</v>
+        <v>0.05826173369022596</v>
       </c>
       <c r="D40">
-        <v>0.001186212067157379</v>
+        <v>0.003029442946447222</v>
       </c>
       <c r="E40">
-        <v>0.02504167669874921</v>
+        <v>0.005824753260485593</v>
       </c>
       <c r="F40">
-        <v>0.002679145789996905</v>
+        <v>0.004048348188090698</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.1602836708705572</v>
+        <v>0.1633660491565295</v>
       </c>
       <c r="C41">
-        <v>0.06182095755652664</v>
+        <v>0.0600413456233763</v>
       </c>
       <c r="D41">
-        <v>0.00118936984966532</v>
+        <v>0.003128357178056612</v>
       </c>
       <c r="E41">
-        <v>0.02574052867067744</v>
+        <v>0.006011113786333122</v>
       </c>
       <c r="F41">
-        <v>0.002690225246282367</v>
+        <v>0.00427662770106817</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.157201292584585</v>
+        <v>0.1602836708705572</v>
       </c>
       <c r="C42">
-        <v>0.06349999999999997</v>
+        <v>0.06182095755652664</v>
       </c>
       <c r="D42">
-        <v>0.00119104383293595</v>
+        <v>0.003227741345791986</v>
       </c>
       <c r="E42">
-        <v>0.0263998870963626</v>
+        <v>0.00619747431218065</v>
       </c>
       <c r="F42">
-        <v>0.002693557475113461</v>
+        <v>0.004510697223960559</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.1541189142986127</v>
+        <v>0.157201292584585</v>
       </c>
       <c r="C43">
         <v>0.06349999999999997</v>
       </c>
       <c r="D43">
-        <v>0.001177216256870316</v>
+        <v>0.003322229269117357</v>
       </c>
       <c r="E43">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F43">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.1510365360126405</v>
+        <v>0.1541189142986127</v>
       </c>
       <c r="C44">
         <v>0.06349999999999997</v>
       </c>
       <c r="D44">
-        <v>0.001163163493623829</v>
+        <v>0.003327434532576602</v>
       </c>
       <c r="E44">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F44">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.1479541577266682</v>
+        <v>0.1510365360126405</v>
       </c>
       <c r="C45">
         <v>0.06349999999999997</v>
       </c>
       <c r="D45">
-        <v>0.001149572647018493</v>
+        <v>0.003332586362042118</v>
       </c>
       <c r="E45">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F45">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.144871779440696</v>
+        <v>0.1479541577266682</v>
       </c>
       <c r="C46">
         <v>0.06349999999999997</v>
       </c>
       <c r="D46">
-        <v>0.001136457126846259</v>
+        <v>0.003337684847752845</v>
       </c>
       <c r="E46">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F46">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.1417894011547237</v>
+        <v>0.144871779440696</v>
       </c>
       <c r="C47">
         <v>0.06349999999999997</v>
       </c>
       <c r="D47">
-        <v>0.001123787103455194</v>
+        <v>0.003342730032376083</v>
       </c>
       <c r="E47">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F47">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.1387070228687514</v>
+        <v>0.1417894011547237</v>
       </c>
       <c r="C48">
         <v>0.06349999999999997</v>
       </c>
       <c r="D48">
-        <v>0.001111531988338945</v>
+        <v>0.003347721958761773</v>
       </c>
       <c r="E48">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F48">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.1356246445827792</v>
+        <v>0.1387070228687514</v>
       </c>
       <c r="C49">
         <v>0.06349999999999997</v>
       </c>
       <c r="D49">
-        <v>0.001099663163876795</v>
+        <v>0.003352660669953164</v>
       </c>
       <c r="E49">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F49">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.1325422662968069</v>
+        <v>0.1356246445827792</v>
       </c>
       <c r="C50">
         <v>0.06349999999999997</v>
       </c>
       <c r="D50">
-        <v>0.001088154014103238</v>
+        <v>0.003357546209200528</v>
       </c>
       <c r="E50">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F50">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.1294598880108347</v>
+        <v>0.1325422662968069</v>
       </c>
       <c r="C51">
         <v>0.06349999999999997</v>
       </c>
       <c r="D51">
-        <v>0.001076979785465975</v>
+        <v>0.003362378619972638</v>
       </c>
       <c r="E51">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F51">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.1263775097248624</v>
+        <v>0.1294598880108347</v>
       </c>
       <c r="C52">
         <v>0.06349999999999997</v>
       </c>
       <c r="D52">
-        <v>0.001066117450168748</v>
+        <v>0.003367157945969115</v>
       </c>
       <c r="E52">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F52">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.1232951314388902</v>
+        <v>0.1263775097248624</v>
       </c>
       <c r="C53">
         <v>0.06349999999999997</v>
       </c>
       <c r="D53">
-        <v>0.001055545581804663</v>
+        <v>0.003371884231131328</v>
       </c>
       <c r="E53">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F53">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.1202127531529179</v>
+        <v>0.1232951314388902</v>
       </c>
       <c r="C54">
         <v>0.06349999999999997</v>
       </c>
       <c r="D54">
-        <v>0.001045244242011456</v>
+        <v>0.003376557519655017</v>
       </c>
       <c r="E54">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F54">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.1171303748669457</v>
+        <v>0.1202127531529179</v>
       </c>
       <c r="C55">
         <v>0.06349999999999997</v>
       </c>
       <c r="D55">
-        <v>0.001035194876512218</v>
+        <v>0.003381177856000665</v>
       </c>
       <c r="E55">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F55">
-        <v>0.002693557475113466</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.1140479965809734</v>
+        <v>0.1171303748669457</v>
       </c>
       <c r="C56">
         <v>0.06349999999999997</v>
       </c>
       <c r="D56">
-        <v>0.001025380219210945</v>
+        <v>0.003385745284904821</v>
       </c>
       <c r="E56">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F56">
-        <v>0.002693557475113466</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.1109656182950012</v>
+        <v>0.1140479965809734</v>
       </c>
       <c r="C57">
         <v>0.06349999999999997</v>
       </c>
       <c r="D57">
-        <v>0.001015784203295974</v>
+        <v>0.003390259851390675</v>
       </c>
       <c r="E57">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F57">
-        <v>0.002693557475113466</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.1078832400090289</v>
+        <v>0.1109656182950012</v>
       </c>
       <c r="C58">
         <v>0.06349999999999997</v>
       </c>
       <c r="D58">
-        <v>0.001006391878528441</v>
+        <v>0.003394721600779232</v>
       </c>
       <c r="E58">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F58">
-        <v>0.002693557475113466</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.1048008617230567</v>
+        <v>0.1078832400090289</v>
       </c>
       <c r="C59">
         <v>0.06349999999999997</v>
       </c>
       <c r="D59">
-        <v>0.0009971893340658122</v>
+        <v>0.003399130578698605</v>
       </c>
       <c r="E59">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F59">
-        <v>0.002693557475113466</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.1017184834370844</v>
+        <v>0.1048008617230567</v>
       </c>
       <c r="C60">
         <v>0.06349999999999997</v>
       </c>
       <c r="D60">
-        <v>0.000988163626302339</v>
+        <v>0.003403486831095298</v>
       </c>
       <c r="E60">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F60">
-        <v>0.002693557475113466</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.09863610515111214</v>
+        <v>0.1017184834370844</v>
       </c>
       <c r="C61">
         <v>0.06349999999999997</v>
       </c>
       <c r="D61">
-        <v>0.0009793027113074856</v>
+        <v>0.003407790404242756</v>
       </c>
       <c r="E61">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F61">
-        <v>0.002693557475113466</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.09555372686513988</v>
+        <v>0.09863610515111214</v>
       </c>
       <c r="C62">
         <v>0.06349999999999997</v>
       </c>
       <c r="D62">
-        <v>0.0009705953815171127</v>
+        <v>0.003412041344752984</v>
       </c>
       <c r="E62">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F62">
-        <v>0.002693557475113466</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.09247134857916763</v>
+        <v>0.09555372686513988</v>
       </c>
       <c r="C63">
         <v>0.06349999999999997</v>
       </c>
       <c r="D63">
-        <v>0.0009620312063862522</v>
+        <v>0.003416239699583705</v>
       </c>
       <c r="E63">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F63">
-        <v>0.002693557475113466</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.08938897029319537</v>
+        <v>0.09247134857916763</v>
       </c>
       <c r="C64">
         <v>0.06349999999999997</v>
       </c>
       <c r="D64">
-        <v>0.0009536004767513149</v>
+        <v>0.003420385516049339</v>
       </c>
       <c r="E64">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F64">
-        <v>0.002693557475113466</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.08630659200722313</v>
+        <v>0.08938897029319537</v>
       </c>
       <c r="C65">
         <v>0.06349999999999997</v>
       </c>
       <c r="D65">
-        <v>0.0009452941526773795</v>
+        <v>0.003424478841828994</v>
       </c>
       <c r="E65">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F65">
-        <v>0.002693557475113466</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.08322421372125087</v>
+        <v>0.08630659200722313</v>
       </c>
       <c r="C66">
         <v>0.06349999999999997</v>
       </c>
       <c r="D66">
-        <v>0.0009371038145856078</v>
+        <v>0.003428519724975951</v>
       </c>
       <c r="E66">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F66">
-        <v>0.002693557475113466</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.08014183543527861</v>
+        <v>0.08322421372125087</v>
       </c>
       <c r="C67">
         <v>0.06349999999999997</v>
       </c>
       <c r="D67">
-        <v>0.0009290216174692405</v>
+        <v>0.003432508213925793</v>
       </c>
       <c r="E67">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F67">
-        <v>0.002693557475113466</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.07705945714930636</v>
+        <v>0.08014183543527861</v>
       </c>
       <c r="C68">
         <v>0.06349999999999997</v>
       </c>
       <c r="D68">
-        <v>0.0009210402480156438</v>
+        <v>0.003436444357505028</v>
       </c>
       <c r="E68">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F68">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.0739770788633341</v>
+        <v>0.07705945714930636</v>
       </c>
       <c r="C69">
         <v>0.06349999999999997</v>
       </c>
       <c r="D69">
-        <v>0.0009131528844578625</v>
+        <v>0.003440328204939222</v>
       </c>
       <c r="E69">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F69">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.07089470057736184</v>
+        <v>0.0739770788633341</v>
       </c>
       <c r="C70">
         <v>0.06349999999999997</v>
       </c>
       <c r="D70">
-        <v>0.0009053531589829166</v>
+        <v>0.003444159805860656</v>
       </c>
       <c r="E70">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F70">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.0678123222913896</v>
+        <v>0.07089470057736184</v>
       </c>
       <c r="C71">
         <v>0.06349999999999997</v>
       </c>
       <c r="D71">
-        <v>0.0008976351225262859</v>
+        <v>0.003447939210316595</v>
       </c>
       <c r="E71">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F71">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.06472994400541734</v>
+        <v>0.0678123222913896</v>
       </c>
       <c r="C72">
         <v>0.06349999999999997</v>
       </c>
       <c r="D72">
-        <v>0.0008899932117829944</v>
+        <v>0.003451666468776597</v>
       </c>
       <c r="E72">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F72">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.06164756571944509</v>
+        <v>0.06472994400541734</v>
       </c>
       <c r="C73">
         <v>0.06349999999999997</v>
       </c>
       <c r="D73">
-        <v>0.0008824222182655891</v>
+        <v>0.003455341632139778</v>
       </c>
       <c r="E73">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F73">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.05856518743347283</v>
+        <v>0.06164756571944509</v>
       </c>
       <c r="C74">
         <v>0.06349999999999997</v>
       </c>
       <c r="D74">
-        <v>0.0008749172592380226</v>
+        <v>0.003458964751741688</v>
       </c>
       <c r="E74">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F74">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.05548280914750058</v>
+        <v>0.05856518743347283</v>
       </c>
       <c r="C75">
         <v>0.06349999999999997</v>
       </c>
       <c r="D75">
-        <v>0.0008674737503518527</v>
+        <v>0.0034625358793619</v>
       </c>
       <c r="E75">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F75">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.05240043086152833</v>
+        <v>0.05548280914750058</v>
       </c>
       <c r="C76">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D76">
-        <v>0.0008600873798068189</v>
+        <v>0.003466055067230723</v>
       </c>
       <c r="E76">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F76">
-        <v>0.002693557475113457</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.04931805257555607</v>
+        <v>0.05240043086152833</v>
       </c>
       <c r="C77">
         <v>0.06349999999999999</v>
       </c>
       <c r="D77">
-        <v>0.0008527540838512448</v>
+        <v>0.003469522368034913</v>
       </c>
       <c r="E77">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F77">
-        <v>0.002693557475113457</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.04623567428958381</v>
+        <v>0.04931805257555607</v>
       </c>
       <c r="C78">
         <v>0.06349999999999999</v>
       </c>
       <c r="D78">
-        <v>0.0008454700234280107</v>
+        <v>0.003472937834925055</v>
       </c>
       <c r="E78">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F78">
-        <v>0.002693557475113457</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.04315329600361156</v>
+        <v>0.04623567428958381</v>
       </c>
       <c r="C79">
         <v>0.06349999999999999</v>
       </c>
       <c r="D79">
-        <v>0.0008382315617580172</v>
+        <v>0.003476301521520737</v>
       </c>
       <c r="E79">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F79">
-        <v>0.002693557475113457</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.04007091771763931</v>
+        <v>0.04315329600361156</v>
       </c>
       <c r="C80">
         <v>0.06349999999999999</v>
       </c>
       <c r="D80">
-        <v>0.0008310352426336029</v>
+        <v>0.003479613481918101</v>
       </c>
       <c r="E80">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F80">
-        <v>0.002693557475113457</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.03698853943166705</v>
+        <v>0.04007091771763931</v>
       </c>
       <c r="C81">
         <v>0.06349999999999999</v>
       </c>
       <c r="D81">
-        <v>0.0008238777691673239</v>
+        <v>0.003482873770693278</v>
       </c>
       <c r="E81">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F81">
-        <v>0.002693557475113463</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.0339061611456948</v>
+        <v>0.03698853943166705</v>
       </c>
       <c r="C82">
         <v>0.06349999999999999</v>
       </c>
       <c r="D82">
-        <v>0.0008167559827040073</v>
+        <v>0.003486082442910519</v>
       </c>
       <c r="E82">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F82">
-        <v>0.002693557475113463</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.03082378285972254</v>
+        <v>0.0339061611456948</v>
       </c>
       <c r="C83">
         <v>0.06349999999999999</v>
       </c>
       <c r="D83">
-        <v>0.000809666841552196</v>
+        <v>0.003489239554125677</v>
       </c>
       <c r="E83">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F83">
-        <v>0.002693557475113463</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.02774140457375029</v>
+        <v>0.03082378285972254</v>
       </c>
       <c r="C84">
         <v>0.06349999999999999</v>
       </c>
       <c r="D84">
-        <v>0.0008026073991193066</v>
+        <v>0.003492345160392814</v>
       </c>
       <c r="E84">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F84">
-        <v>0.002693557475113463</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.02465902628777803</v>
+        <v>0.02774140457375029</v>
       </c>
       <c r="C85">
         <v>0.06349999999999999</v>
       </c>
       <c r="D85">
-        <v>0.000795574780935026</v>
+        <v>0.003495399318268038</v>
       </c>
       <c r="E85">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F85">
-        <v>0.002693557475113463</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.02157664800180578</v>
+        <v>0.02465902628777803</v>
       </c>
       <c r="C86">
         <v>0.06349999999999999</v>
       </c>
       <c r="D86">
-        <v>0.0007885661599076006</v>
+        <v>0.003498402084815833</v>
       </c>
       <c r="E86">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F86">
-        <v>0.002693557475113463</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.01849426971583353</v>
+        <v>0.02157664800180578</v>
       </c>
       <c r="C87">
         <v>0.06349999999999999</v>
       </c>
       <c r="D87">
-        <v>0.0007815787289599653</v>
+        <v>0.003501353517612606</v>
       </c>
       <c r="E87">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F87">
-        <v>0.002693557475113463</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.01541189142986127</v>
+        <v>0.01849426971583353</v>
       </c>
       <c r="C88">
         <v>0.06349999999999999</v>
       </c>
       <c r="D88">
-        <v>0.0007746096699097737</v>
+        <v>0.00350425367475143</v>
       </c>
       <c r="E88">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F88">
-        <v>0.002693557475113463</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.01232951314388902</v>
+        <v>0.01541189142986127</v>
       </c>
       <c r="C89">
         <v>0.06349999999999999</v>
       </c>
       <c r="D89">
-        <v>0.0007676561170471877</v>
+        <v>0.003507102614847016</v>
       </c>
       <c r="E89">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F89">
-        <v>0.002693557475113463</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.009247134857916763</v>
+        <v>0.01232951314388902</v>
       </c>
       <c r="C90">
         <v>0.06349999999999999</v>
       </c>
       <c r="D90">
-        <v>0.0007607151132596978</v>
+        <v>0.003509900397039556</v>
       </c>
       <c r="E90">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F90">
-        <v>0.002693557475113463</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.006164756571944509</v>
+        <v>0.009247134857916763</v>
       </c>
       <c r="C91">
         <v>0.06349999999999999</v>
       </c>
       <c r="D91">
-        <v>0.0007537835556459435</v>
+        <v>0.003512647080998577</v>
       </c>
       <c r="E91">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F91">
-        <v>0.002693557475113463</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.003082378285972254</v>
+        <v>0.006164756571944509</v>
       </c>
       <c r="C92">
         <v>0.06349999999999999</v>
       </c>
       <c r="D92">
-        <v>0.0007468581261704152</v>
+        <v>0.003515342726926907</v>
       </c>
       <c r="E92">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F92">
-        <v>0.002693557475113463</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2234,19 +2234,39 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>0.003082378285972254</v>
       </c>
       <c r="C93">
         <v>0.06349999999999999</v>
       </c>
       <c r="D93">
-        <v>0.0007399352007310186</v>
+        <v>0.003517987395565053</v>
       </c>
       <c r="E93">
-        <v>0.0263998870963626</v>
+        <v>0.006373303225696693</v>
       </c>
       <c r="F93">
-        <v>0.002693557475113463</v>
+        <v>0.004736826432130644</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0.06349999999999999</v>
+      </c>
+      <c r="D94">
+        <v>0.003520581148193607</v>
+      </c>
+      <c r="E94">
+        <v>0.006373303225696693</v>
+      </c>
+      <c r="F94">
+        <v>0.004736826432130644</v>
       </c>
     </row>
   </sheetData>

--- a/RegenSolver/enginefiles/solverdatageometry.xlsx
+++ b/RegenSolver/enginefiles/solverdatageometry.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,19 +414,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2835788023094474</v>
+        <v>0.2804964240234751</v>
       </c>
       <c r="C2">
-        <v>0.03195026651553548</v>
+        <v>0.03147121290958439</v>
       </c>
       <c r="D2">
-        <v>0.01123956085032268</v>
+        <v>0.004217299545780975</v>
       </c>
       <c r="E2">
-        <v>0.003069422861113039</v>
+        <v>0.009322211818032444</v>
       </c>
       <c r="F2">
-        <v>0.00736992445354484</v>
+        <v>0.00345599140281161</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -434,19 +434,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2804964240234751</v>
+        <v>0.2774140457375029</v>
       </c>
       <c r="C3">
-        <v>0.03112434574304199</v>
+        <v>0.0306093679170835</v>
       </c>
       <c r="D3">
-        <v>0.01000531677654681</v>
+        <v>0.004179231963339169</v>
       </c>
       <c r="E3">
-        <v>0.00298293264006928</v>
+        <v>0.008983766080910699</v>
       </c>
       <c r="F3">
-        <v>0.006547291861419733</v>
+        <v>0.003425805497417173</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -454,19 +454,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2774140457375029</v>
+        <v>0.2743316674515306</v>
       </c>
       <c r="C4">
-        <v>0.03029842497054849</v>
+        <v>0.02969828461214734</v>
       </c>
       <c r="D4">
-        <v>0.008912343935593692</v>
+        <v>0.004101743240448216</v>
       </c>
       <c r="E4">
-        <v>0.002896442419025522</v>
+        <v>0.008625984503711229</v>
       </c>
       <c r="F4">
-        <v>0.005809895099225876</v>
+        <v>0.003349568644821113</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -474,19 +474,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2743316674515306</v>
+        <v>0.2712492891655584</v>
       </c>
       <c r="C5">
-        <v>0.029472504198055</v>
+        <v>0.02872847700876699</v>
       </c>
       <c r="D5">
-        <v>0.007941593847992413</v>
+        <v>0.003979379384703383</v>
       </c>
       <c r="E5">
-        <v>0.002809952197981762</v>
+        <v>0.008245141948439325</v>
       </c>
       <c r="F5">
-        <v>0.005148374855221433</v>
+        <v>0.00322319990994875</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -494,19 +494,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2712492891655584</v>
+        <v>0.2681669108795861</v>
       </c>
       <c r="C6">
-        <v>0.02864658342556152</v>
+        <v>0.02769164210352534</v>
       </c>
       <c r="D6">
-        <v>0.007077018891383948</v>
+        <v>0.003808321093988314</v>
       </c>
       <c r="E6">
-        <v>0.002723461976938006</v>
+        <v>0.007837977833277745</v>
       </c>
       <c r="F6">
-        <v>0.004554573613613691</v>
+        <v>0.00304495169516637</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -514,19 +514,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2681669108795861</v>
+        <v>0.2650845325936139</v>
       </c>
       <c r="C7">
-        <v>0.02782066265306801</v>
+        <v>0.02659930764143218</v>
       </c>
       <c r="D7">
-        <v>0.006305019515443807</v>
+        <v>0.00359509020147115</v>
       </c>
       <c r="E7">
-        <v>0.002636971755894245</v>
+        <v>0.007409019093105896</v>
       </c>
       <c r="F7">
-        <v>0.004021347119569489</v>
+        <v>0.002824041829782437</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -534,19 +534,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2650845325936139</v>
+        <v>0.2620021543076416</v>
       </c>
       <c r="C8">
-        <v>0.02699474188057452</v>
+        <v>0.02547943545559284</v>
       </c>
       <c r="D8">
-        <v>0.005614000588645147</v>
+        <v>0.003354430973389259</v>
       </c>
       <c r="E8">
-        <v>0.002550481534850486</v>
+        <v>0.006969246314106842</v>
       </c>
       <c r="F8">
-        <v>0.003542408082464203</v>
+        <v>0.002577905378199628</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -554,19 +554,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2620021543076416</v>
+        <v>0.2589197760216694</v>
       </c>
       <c r="C9">
-        <v>0.02616882110808103</v>
+        <v>0.02436048350403403</v>
       </c>
       <c r="D9">
-        <v>0.004994010799898742</v>
+        <v>0.003100925195501304</v>
       </c>
       <c r="E9">
-        <v>0.002463991313806728</v>
+        <v>0.0065298349102647</v>
       </c>
       <c r="F9">
-        <v>0.003112194912434481</v>
+        <v>0.002323263182718481</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -574,19 +574,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2589197760216694</v>
+        <v>0.2558373977356971</v>
       </c>
       <c r="C10">
-        <v>0.02534290033558753</v>
+        <v>0.02327090974478244</v>
       </c>
       <c r="D10">
-        <v>0.004436443671906931</v>
+        <v>0.002847541127031827</v>
       </c>
       <c r="E10">
-        <v>0.002377501092762969</v>
+        <v>0.006101960295563578</v>
       </c>
       <c r="F10">
-        <v>0.002725759255967703</v>
+        <v>0.002074522731885093</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -594,19 +594,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2558373977356971</v>
+        <v>0.2527550194497248</v>
       </c>
       <c r="C11">
-        <v>0.02451697956309404</v>
+        <v>0.02223917213586479</v>
       </c>
       <c r="D11">
-        <v>0.003933780971567453</v>
+        <v>0.00260485410127745</v>
       </c>
       <c r="E11">
-        <v>0.002291010871719209</v>
+        <v>0.005696797883987578</v>
       </c>
       <c r="F11">
-        <v>0.002378666209604144</v>
+        <v>0.001843003465859827</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -614,19 +614,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2527550194497248</v>
+        <v>0.2496726411637526</v>
       </c>
       <c r="C12">
-        <v>0.02369105879060053</v>
+        <v>0.02129372863530783</v>
       </c>
       <c r="D12">
-        <v>0.003479357644122252</v>
+        <v>0.002380732904408604</v>
       </c>
       <c r="E12">
-        <v>0.002204520650675449</v>
+        <v>0.00532552308952083</v>
       </c>
       <c r="F12">
-        <v>0.002066899738770377</v>
+        <v>0.001636755102339971</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -634,19 +634,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2496726411637526</v>
+        <v>0.2465902628777804</v>
       </c>
       <c r="C13">
-        <v>0.02286513801810705</v>
+        <v>0.02046303720113823</v>
       </c>
       <c r="D13">
-        <v>0.003067117776445318</v>
+        <v>0.00218042788026477</v>
       </c>
       <c r="E13">
-        <v>0.002118030429631692</v>
+        <v>0.004999311326147434</v>
       </c>
       <c r="F13">
-        <v>0.001786761118420613</v>
+        <v>0.001460859107587135</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -654,19 +654,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2465902628777804</v>
+        <v>0.2435078845918081</v>
       </c>
       <c r="C14">
-        <v>0.02203921724561356</v>
+        <v>0.01977555579138271</v>
       </c>
       <c r="D14">
-        <v>0.00269129971451381</v>
+        <v>0.002006961126605323</v>
       </c>
       <c r="E14">
-        <v>0.002031540208587933</v>
+        <v>0.004729338007851498</v>
       </c>
       <c r="F14">
-        <v>0.001534733902956449</v>
+        <v>0.001318056975378243</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -674,19 +674,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2435078845918081</v>
+        <v>0.2404255063058358</v>
       </c>
       <c r="C15">
-        <v>0.02121329647312005</v>
+        <v>0.01925974236406801</v>
       </c>
       <c r="D15">
-        <v>0.002345881515107079</v>
+        <v>0.001861717807214388</v>
       </c>
       <c r="E15">
-        <v>0.001945049987544173</v>
+        <v>0.004526778548617143</v>
       </c>
       <c r="F15">
-        <v>0.001307240704553732</v>
+        <v>0.001209550784472651</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -694,19 +694,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2404255063058358</v>
+        <v>0.2373431280198636</v>
       </c>
       <c r="C16">
-        <v>0.02038737570062656</v>
+        <v>0.01894405487722081</v>
       </c>
       <c r="D16">
-        <v>0.002023161061402415</v>
+        <v>0.001745143202354685</v>
       </c>
       <c r="E16">
-        <v>0.001858559766500414</v>
+        <v>0.004402808362428469</v>
       </c>
       <c r="F16">
-        <v>0.001100010222100193</v>
+        <v>0.001135855273426894</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -714,19 +714,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2373431280198636</v>
+        <v>0.2342607497338913</v>
       </c>
       <c r="C17">
-        <v>0.01956145492813306</v>
+        <v>0.01885870622756194</v>
       </c>
       <c r="D17">
-        <v>0.001707734577503697</v>
+        <v>0.001635931692649604</v>
       </c>
       <c r="E17">
-        <v>0.001772069545456655</v>
+        <v>0.004369292026083204</v>
       </c>
       <c r="F17">
-        <v>0.0009053521563015857</v>
+        <v>0.001079952835490984</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -734,19 +734,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2342607497338913</v>
+        <v>0.2311783714479191</v>
       </c>
       <c r="C18">
-        <v>0.01911027116091851</v>
+        <v>0.01912428449950666</v>
       </c>
       <c r="D18">
-        <v>0.001218077766272745</v>
+        <v>0.001460175657780327</v>
       </c>
       <c r="E18">
-        <v>0.001724821691839982</v>
+        <v>0.00447358436959503</v>
       </c>
       <c r="F18">
-        <v>0.0006514576687856235</v>
+        <v>0.000981323373974893</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -754,19 +754,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2311783714479191</v>
+        <v>0.2280959931619468</v>
       </c>
       <c r="C19">
-        <v>0.02088988309406883</v>
+        <v>0.01977667194772571</v>
       </c>
       <c r="D19">
-        <v>0.001180317897014037</v>
+        <v>0.001347483910922168</v>
       </c>
       <c r="E19">
-        <v>0.001911182217687508</v>
+        <v>0.004729776321422424</v>
       </c>
       <c r="F19">
-        <v>0.0006897390448762854</v>
+        <v>0.0009453626872037103</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -774,19 +774,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2280959931619468</v>
+        <v>0.2250136148759746</v>
       </c>
       <c r="C20">
-        <v>0.02266949502721918</v>
+        <v>0.02078193744327912</v>
       </c>
       <c r="D20">
-        <v>0.001227950137116804</v>
+        <v>0.001282677965946509</v>
       </c>
       <c r="E20">
-        <v>0.002097542743535037</v>
+        <v>0.005124543158389662</v>
       </c>
       <c r="F20">
-        <v>0.0007720860834913208</v>
+        <v>0.0009545331619201829</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -794,19 +794,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2250136148759746</v>
+        <v>0.2219312365900023</v>
       </c>
       <c r="C21">
-        <v>0.02444910696036953</v>
+        <v>0.02210614985722696</v>
       </c>
       <c r="D21">
-        <v>0.001294484742578536</v>
+        <v>0.001253286530689337</v>
       </c>
       <c r="E21">
-        <v>0.002283903269382566</v>
+        <v>0.00564456015732103</v>
       </c>
       <c r="F21">
-        <v>0.000868808986799901</v>
+        <v>0.000998678238579094</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -814,19 +814,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2219312365900023</v>
+        <v>0.2188488583040301</v>
       </c>
       <c r="C22">
-        <v>0.02622871889351988</v>
+        <v>0.02371537806062926</v>
       </c>
       <c r="D22">
-        <v>0.001369682479631713</v>
+        <v>0.001250152015036472</v>
       </c>
       <c r="E22">
-        <v>0.002470263795230094</v>
+        <v>0.006276502595040802</v>
       </c>
       <c r="F22">
-        <v>0.0009754618321806099</v>
+        <v>0.001071472966050713</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -834,19 +834,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2188488583040301</v>
+        <v>0.2157664800180578</v>
       </c>
       <c r="C23">
-        <v>0.0280083308266702</v>
+        <v>0.02557569092454608</v>
       </c>
       <c r="D23">
-        <v>0.001449889373698406</v>
+        <v>0.001266362489867692</v>
       </c>
       <c r="E23">
-        <v>0.00265662432107762</v>
+        <v>0.00700704574837326</v>
       </c>
       <c r="F23">
-        <v>0.001090450802385665</v>
+        <v>0.0011685024066644</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -854,19 +854,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2157664800180578</v>
+        <v>0.2126841017320855</v>
       </c>
       <c r="C24">
-        <v>0.02978794275982054</v>
+        <v>0.02765315732003749</v>
       </c>
       <c r="D24">
-        <v>0.001533393440821631</v>
+        <v>0.001296669697592697</v>
       </c>
       <c r="E24">
-        <v>0.002842984846925148</v>
+        <v>0.007822864894142696</v>
       </c>
       <c r="F24">
-        <v>0.001213007932862424</v>
+        <v>0.00128619547774779</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -874,19 +874,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2126841017320855</v>
+        <v>0.2096017234461133</v>
       </c>
       <c r="C25">
-        <v>0.03156755469297089</v>
+        <v>0.02991384611816349</v>
       </c>
       <c r="D25">
-        <v>0.001619263087855891</v>
+        <v>0.001337068876687423</v>
       </c>
       <c r="E25">
-        <v>0.003029345372772677</v>
+        <v>0.008710635309173369</v>
       </c>
       <c r="F25">
-        <v>0.001342694362838181</v>
+        <v>0.001421232666709389</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -894,19 +894,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.2096017234461133</v>
+        <v>0.206519345160141</v>
       </c>
       <c r="C26">
-        <v>0.03334716662612121</v>
+        <v>0.03232382618998419</v>
       </c>
       <c r="D26">
-        <v>0.001706939717117927</v>
+        <v>0.00138444884917575</v>
       </c>
       <c r="E26">
-        <v>0.003215705898620203</v>
+        <v>0.009657032270289578</v>
       </c>
       <c r="F26">
-        <v>0.001479228766495999</v>
+        <v>0.001570228252429992</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -914,19 +914,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.206519345160141</v>
+        <v>0.2034369668741688</v>
       </c>
       <c r="C27">
-        <v>0.03512677855927156</v>
+        <v>0.03484916640655957</v>
       </c>
       <c r="D27">
-        <v>0.001796064483787533</v>
+        <v>0.001436321285922571</v>
       </c>
       <c r="E27">
-        <v>0.003402066424467731</v>
+        <v>0.01064873105431559</v>
       </c>
       <c r="F27">
-        <v>0.001622415158561564</v>
+        <v>0.001729577819518405</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -934,19 +934,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.2034369668741688</v>
+        <v>0.2003545885881965</v>
       </c>
       <c r="C28">
-        <v>0.03690639049242189</v>
+        <v>0.03745593563894975</v>
       </c>
       <c r="D28">
-        <v>0.001886394559814423</v>
+        <v>0.001490630954696866</v>
       </c>
       <c r="E28">
-        <v>0.003588426950315259</v>
+        <v>0.0116724069380757</v>
       </c>
       <c r="F28">
-        <v>0.001772108187467068</v>
+        <v>0.001895408782914716</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -954,19 +954,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.2003545885881965</v>
+        <v>0.1972722103022243</v>
       </c>
       <c r="C29">
-        <v>0.03868600242557224</v>
+        <v>0.04011020275821471</v>
       </c>
       <c r="D29">
-        <v>0.001977758747139886</v>
+        <v>0.001545630780090566</v>
       </c>
       <c r="E29">
-        <v>0.003774787476162788</v>
+        <v>0.01271473519839417</v>
       </c>
       <c r="F29">
-        <v>0.001928194736920391</v>
+        <v>0.002063596947899067</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -974,19 +974,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.1972722103022243</v>
+        <v>0.194189832016252</v>
       </c>
       <c r="C30">
-        <v>0.04046561435872258</v>
+        <v>0.04277803663541454</v>
       </c>
       <c r="D30">
-        <v>0.002070032242680598</v>
+        <v>0.001599801711848171</v>
       </c>
       <c r="E30">
-        <v>0.003961148002010316</v>
+        <v>0.01376239111209529</v>
       </c>
       <c r="F30">
-        <v>0.002090583406089871</v>
+        <v>0.002229826080327799</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -994,19 +994,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.194189832016252</v>
+        <v>0.1911074537302798</v>
       </c>
       <c r="C31">
-        <v>0.04224522629187291</v>
+        <v>0.04542550614160931</v>
       </c>
       <c r="D31">
-        <v>0.002163121479169514</v>
+        <v>0.001651801458790525</v>
       </c>
       <c r="E31">
-        <v>0.004147508527857843</v>
+        <v>0.01480204995600335</v>
       </c>
       <c r="F31">
-        <v>0.002259198117932249</v>
+        <v>0.002389675302229469</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.1911074537302798</v>
+        <v>0.1880250754443075</v>
       </c>
       <c r="C32">
-        <v>0.04402483822502326</v>
+        <v>0.04801868014785901</v>
       </c>
       <c r="D32">
-        <v>0.002256954604008654</v>
+        <v>0.001700431322987158</v>
       </c>
       <c r="E32">
-        <v>0.004333869053705372</v>
+        <v>0.01582038700694261</v>
       </c>
       <c r="F32">
-        <v>0.002433974036406801</v>
+        <v>0.002538723667132942</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.1880250754443075</v>
+        <v>0.1849426971583353</v>
       </c>
       <c r="C33">
-        <v>0.04580445015817358</v>
+        <v>0.05052362752522375</v>
       </c>
       <c r="D33">
-        <v>0.002351475274927634</v>
+        <v>0.001744614326505328</v>
       </c>
       <c r="E33">
-        <v>0.004520229579552898</v>
+        <v>0.01680407754173737</v>
       </c>
       <c r="F33">
-        <v>0.002614854846450544</v>
+        <v>0.002672664025421777</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.1849426971583353</v>
+        <v>0.181860318872363</v>
       </c>
       <c r="C34">
-        <v>0.04758406209132393</v>
+        <v>0.05290641714476352</v>
       </c>
       <c r="D34">
-        <v>0.002446638489759794</v>
+        <v>0.001783380409306842</v>
       </c>
       <c r="E34">
-        <v>0.004706590105400426</v>
+        <v>0.01773979683721189</v>
       </c>
       <c r="F34">
-        <v>0.002801790875666073</v>
+        <v>0.002787420074674693</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.181860318872363</v>
+        <v>0.1787779405863907</v>
       </c>
       <c r="C35">
-        <v>0.04936367402447427</v>
+        <v>0.05513311787753842</v>
       </c>
       <c r="D35">
-        <v>0.002542407708079244</v>
+        <v>0.001815856074949508</v>
       </c>
       <c r="E35">
-        <v>0.004892950631247953</v>
+        <v>0.01861422017019047</v>
       </c>
       <c r="F35">
-        <v>0.002994737756339128</v>
+        <v>0.002879261730710969</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.1787779405863907</v>
+        <v>0.1756955623004185</v>
       </c>
       <c r="C36">
-        <v>0.05114328595762462</v>
+        <v>0.05716979859460847</v>
       </c>
       <c r="D36">
-        <v>0.002638752818324801</v>
+        <v>0.001841256836149879</v>
       </c>
       <c r="E36">
-        <v>0.005079311157095483</v>
+        <v>0.01941402281749737</v>
       </c>
       <c r="F36">
-        <v>0.003193655446218755</v>
+        <v>0.002944914878036174</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.1756955623004185</v>
+        <v>0.1726131840144463</v>
       </c>
       <c r="C37">
-        <v>0.05292289789077495</v>
+        <v>0.05898252816703371</v>
       </c>
       <c r="D37">
-        <v>0.00273564867278473</v>
+        <v>0.001858881411819674</v>
       </c>
       <c r="E37">
-        <v>0.00526567168294301</v>
+        <v>0.02012588005595689</v>
       </c>
       <c r="F37">
-        <v>0.003398507494563323</v>
+        <v>0.002981662282785112</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.1726131840144463</v>
+        <v>0.169530805728474</v>
       </c>
       <c r="C38">
-        <v>0.05470250982392529</v>
+        <v>0.06053737546587424</v>
       </c>
       <c r="D38">
-        <v>0.002833074012746338</v>
+        <v>0.001868107002423306</v>
       </c>
       <c r="E38">
-        <v>0.005452032208790538</v>
+        <v>0.02073646716239331</v>
       </c>
       <c r="F38">
-        <v>0.003609260480268783</v>
+        <v>0.002987433043429179</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.169530805728474</v>
+        <v>0.1664484274425017</v>
       </c>
       <c r="C39">
-        <v>0.05648212175707563</v>
+        <v>0.06180040936219006</v>
       </c>
       <c r="D39">
-        <v>0.002931010667154558</v>
+        <v>0.001868385210675426</v>
       </c>
       <c r="E39">
-        <v>0.005638392734638066</v>
+        <v>0.02123245941363089</v>
       </c>
       <c r="F39">
-        <v>0.003825883573540224</v>
+        <v>0.00296087845194886</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.1664484274425017</v>
+        <v>0.1633660491565295</v>
       </c>
       <c r="C40">
-        <v>0.05826173369022596</v>
+        <v>0.06273769872704123</v>
       </c>
       <c r="D40">
-        <v>0.003029442946447222</v>
+        <v>0.001859238332523159</v>
       </c>
       <c r="E40">
-        <v>0.005824753260485593</v>
+        <v>0.02160053208649393</v>
       </c>
       <c r="F40">
-        <v>0.004048348188090698</v>
+        <v>0.002901432563440843</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.1633660491565295</v>
+        <v>0.1602836708705572</v>
       </c>
       <c r="C41">
-        <v>0.0600413456233763</v>
+        <v>0.0633153124314878</v>
       </c>
       <c r="D41">
-        <v>0.003128357178056612</v>
+        <v>0.001840255850868544</v>
       </c>
       <c r="E41">
-        <v>0.006011113786333122</v>
+        <v>0.0218273604578067</v>
       </c>
       <c r="F41">
-        <v>0.00427662770106817</v>
+        <v>0.002809356139441546</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.1602836708705572</v>
+        <v>0.157201292584585</v>
       </c>
       <c r="C42">
-        <v>0.06182095755652664</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D42">
-        <v>0.003227741345791986</v>
+        <v>0.001812779293413803</v>
       </c>
       <c r="E42">
-        <v>0.00619747431218065</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F42">
-        <v>0.004510697223960559</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.157201292584585</v>
+        <v>0.1541189142986127</v>
       </c>
       <c r="C43">
         <v>0.06349999999999997</v>
       </c>
       <c r="D43">
-        <v>0.003322229269117357</v>
+        <v>0.001808545124045678</v>
       </c>
       <c r="E43">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F43">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.1541189142986127</v>
+        <v>0.1510365360126405</v>
       </c>
       <c r="C44">
         <v>0.06349999999999997</v>
       </c>
       <c r="D44">
-        <v>0.003327434532576602</v>
+        <v>0.001804343270715657</v>
       </c>
       <c r="E44">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F44">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.1510365360126405</v>
+        <v>0.1479541577266682</v>
       </c>
       <c r="C45">
         <v>0.06349999999999997</v>
       </c>
       <c r="D45">
-        <v>0.003332586362042118</v>
+        <v>0.001800137830341874</v>
       </c>
       <c r="E45">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F45">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.1479541577266682</v>
+        <v>0.144871779440696</v>
       </c>
       <c r="C46">
         <v>0.06349999999999997</v>
       </c>
       <c r="D46">
-        <v>0.003337684847752845</v>
+        <v>0.001795929122205837</v>
       </c>
       <c r="E46">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F46">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.144871779440696</v>
+        <v>0.1417894011547237</v>
       </c>
       <c r="C47">
         <v>0.06349999999999997</v>
       </c>
       <c r="D47">
-        <v>0.003342730032376083</v>
+        <v>0.001791717618856923</v>
       </c>
       <c r="E47">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F47">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.1417894011547237</v>
+        <v>0.1387070228687514</v>
       </c>
       <c r="C48">
         <v>0.06349999999999997</v>
       </c>
       <c r="D48">
-        <v>0.003347721958761773</v>
+        <v>0.001787503827550802</v>
       </c>
       <c r="E48">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F48">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.1387070228687514</v>
+        <v>0.1356246445827792</v>
       </c>
       <c r="C49">
         <v>0.06349999999999997</v>
       </c>
       <c r="D49">
-        <v>0.003352660669953164</v>
+        <v>0.001783288291561388</v>
       </c>
       <c r="E49">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F49">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.1356246445827792</v>
+        <v>0.1325422662968069</v>
       </c>
       <c r="C50">
         <v>0.06349999999999997</v>
       </c>
       <c r="D50">
-        <v>0.003357546209200528</v>
+        <v>0.001779071591858085</v>
       </c>
       <c r="E50">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F50">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.1325422662968069</v>
+        <v>0.1294598880108347</v>
       </c>
       <c r="C51">
         <v>0.06349999999999997</v>
       </c>
       <c r="D51">
-        <v>0.003362378619972638</v>
+        <v>0.001774854348686851</v>
       </c>
       <c r="E51">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F51">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.1294598880108347</v>
+        <v>0.1263775097248624</v>
       </c>
       <c r="C52">
         <v>0.06349999999999997</v>
       </c>
       <c r="D52">
-        <v>0.003367157945969115</v>
+        <v>0.001770637222990429</v>
       </c>
       <c r="E52">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F52">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.1263775097248624</v>
+        <v>0.1232951314388902</v>
       </c>
       <c r="C53">
         <v>0.06349999999999997</v>
       </c>
       <c r="D53">
-        <v>0.003371884231131328</v>
+        <v>0.001766420917585003</v>
       </c>
       <c r="E53">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F53">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.1232951314388902</v>
+        <v>0.1202127531529179</v>
       </c>
       <c r="C54">
         <v>0.06349999999999997</v>
       </c>
       <c r="D54">
-        <v>0.003376557519655017</v>
+        <v>0.001762206177984966</v>
       </c>
       <c r="E54">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F54">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.1202127531529179</v>
+        <v>0.1171303748669457</v>
       </c>
       <c r="C55">
         <v>0.06349999999999997</v>
       </c>
       <c r="D55">
-        <v>0.003381177856000665</v>
+        <v>0.001757993792734786</v>
       </c>
       <c r="E55">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F55">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.1171303748669457</v>
+        <v>0.1140479965809734</v>
       </c>
       <c r="C56">
         <v>0.06349999999999997</v>
       </c>
       <c r="D56">
-        <v>0.003385745284904821</v>
+        <v>0.001753784593064085</v>
       </c>
       <c r="E56">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F56">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.1140479965809734</v>
+        <v>0.1109656182950012</v>
       </c>
       <c r="C57">
         <v>0.06349999999999997</v>
       </c>
       <c r="D57">
-        <v>0.003390259851390675</v>
+        <v>0.001749579451626628</v>
       </c>
       <c r="E57">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F57">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.1109656182950012</v>
+        <v>0.1078832400090289</v>
       </c>
       <c r="C58">
         <v>0.06349999999999997</v>
       </c>
       <c r="D58">
-        <v>0.003394721600779232</v>
+        <v>0.001745379280011386</v>
       </c>
       <c r="E58">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F58">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.1078832400090289</v>
+        <v>0.1048008617230567</v>
       </c>
       <c r="C59">
         <v>0.06349999999999997</v>
       </c>
       <c r="D59">
-        <v>0.003399130578698605</v>
+        <v>0.001741185024618763</v>
       </c>
       <c r="E59">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F59">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.1048008617230567</v>
+        <v>0.1017184834370844</v>
       </c>
       <c r="C60">
         <v>0.06349999999999997</v>
       </c>
       <c r="D60">
-        <v>0.003403486831095298</v>
+        <v>0.001736997660370041</v>
       </c>
       <c r="E60">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F60">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.1017184834370844</v>
+        <v>0.09863610515111214</v>
       </c>
       <c r="C61">
         <v>0.06349999999999997</v>
       </c>
       <c r="D61">
-        <v>0.003407790404242756</v>
+        <v>0.001732818181552669</v>
       </c>
       <c r="E61">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F61">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.09863610515111214</v>
+        <v>0.09555372686513988</v>
       </c>
       <c r="C62">
         <v>0.06349999999999997</v>
       </c>
       <c r="D62">
-        <v>0.003412041344752984</v>
+        <v>0.001728647588884179</v>
       </c>
       <c r="E62">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F62">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.09555372686513988</v>
+        <v>0.09247134857916763</v>
       </c>
       <c r="C63">
         <v>0.06349999999999997</v>
       </c>
       <c r="D63">
-        <v>0.003416239699583705</v>
+        <v>0.001724486871583418</v>
       </c>
       <c r="E63">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F63">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.09247134857916763</v>
+        <v>0.08938897029319537</v>
       </c>
       <c r="C64">
         <v>0.06349999999999997</v>
       </c>
       <c r="D64">
-        <v>0.003420385516049339</v>
+        <v>0.00172033698284237</v>
       </c>
       <c r="E64">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F64">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.08938897029319537</v>
+        <v>0.08630659200722313</v>
       </c>
       <c r="C65">
         <v>0.06349999999999997</v>
       </c>
       <c r="D65">
-        <v>0.003424478841828994</v>
+        <v>0.001716198806555869</v>
       </c>
       <c r="E65">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F65">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.08630659200722313</v>
+        <v>0.08322421372125087</v>
       </c>
       <c r="C66">
         <v>0.06349999999999997</v>
       </c>
       <c r="D66">
-        <v>0.003428519724975951</v>
+        <v>0.001712073112435164</v>
       </c>
       <c r="E66">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F66">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.08322421372125087</v>
+        <v>0.08014183543527861</v>
       </c>
       <c r="C67">
         <v>0.06349999999999997</v>
       </c>
       <c r="D67">
-        <v>0.003432508213925793</v>
+        <v>0.001707960495624904</v>
       </c>
       <c r="E67">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F67">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.08014183543527861</v>
+        <v>0.07705945714930636</v>
       </c>
       <c r="C68">
         <v>0.06349999999999997</v>
       </c>
       <c r="D68">
-        <v>0.003436444357505028</v>
+        <v>0.001703861295545639</v>
       </c>
       <c r="E68">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F68">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.07705945714930636</v>
+        <v>0.0739770788633341</v>
       </c>
       <c r="C69">
         <v>0.06349999999999997</v>
       </c>
       <c r="D69">
-        <v>0.003440328204939222</v>
+        <v>0.001699775486725082</v>
       </c>
       <c r="E69">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F69">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.0739770788633341</v>
+        <v>0.07089470057736184</v>
       </c>
       <c r="C70">
         <v>0.06349999999999997</v>
       </c>
       <c r="D70">
-        <v>0.003444159805860656</v>
+        <v>0.001695702531605539</v>
       </c>
       <c r="E70">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F70">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.07089470057736184</v>
+        <v>0.0678123222913896</v>
       </c>
       <c r="C71">
         <v>0.06349999999999997</v>
       </c>
       <c r="D71">
-        <v>0.003447939210316595</v>
+        <v>0.001691641181335941</v>
       </c>
       <c r="E71">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F71">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.0678123222913896</v>
+        <v>0.06472994400541734</v>
       </c>
       <c r="C72">
         <v>0.06349999999999997</v>
       </c>
       <c r="D72">
-        <v>0.003451666468776597</v>
+        <v>0.001687589204779715</v>
       </c>
       <c r="E72">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F72">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.06472994400541734</v>
+        <v>0.06164756571944509</v>
       </c>
       <c r="C73">
         <v>0.06349999999999997</v>
       </c>
       <c r="D73">
-        <v>0.003455341632139778</v>
+        <v>0.001683543017463335</v>
       </c>
       <c r="E73">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F73">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.06164756571944509</v>
+        <v>0.05856518743347283</v>
       </c>
       <c r="C74">
         <v>0.06349999999999997</v>
       </c>
       <c r="D74">
-        <v>0.003458964751741688</v>
+        <v>0.001679497169469557</v>
       </c>
       <c r="E74">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F74">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.05856518743347283</v>
+        <v>0.05548280914750058</v>
       </c>
       <c r="C75">
         <v>0.06349999999999997</v>
       </c>
       <c r="D75">
-        <v>0.0034625358793619</v>
+        <v>0.00167544363192733</v>
       </c>
       <c r="E75">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F75">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.05548280914750058</v>
+        <v>0.05240043086152833</v>
       </c>
       <c r="C76">
         <v>0.06349999999999997</v>
       </c>
       <c r="D76">
-        <v>0.003466055067230723</v>
+        <v>0.001671370791742719</v>
       </c>
       <c r="E76">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F76">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.05240043086152833</v>
+        <v>0.04931805257555607</v>
       </c>
       <c r="C77">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D77">
-        <v>0.003469522368034913</v>
+        <v>0.001641049509845111</v>
       </c>
       <c r="E77">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F77">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.04931805257555607</v>
+        <v>0.04623567428958381</v>
       </c>
       <c r="C78">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D78">
-        <v>0.003472937834925055</v>
+        <v>0.001614442675250491</v>
       </c>
       <c r="E78">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F78">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.04623567428958381</v>
+        <v>0.04315329600361156</v>
       </c>
       <c r="C79">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D79">
-        <v>0.003476301521520737</v>
+        <v>0.001590131403325839</v>
       </c>
       <c r="E79">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F79">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.04315329600361156</v>
+        <v>0.04007091771763931</v>
       </c>
       <c r="C80">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D80">
-        <v>0.003479613481918101</v>
+        <v>0.00156699499600707</v>
       </c>
       <c r="E80">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F80">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.04007091771763931</v>
+        <v>0.03698853943166705</v>
       </c>
       <c r="C81">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D81">
-        <v>0.003482873770693278</v>
+        <v>0.001544896573338549</v>
       </c>
       <c r="E81">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F81">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113468</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.03698853943166705</v>
+        <v>0.0339061611456948</v>
       </c>
       <c r="C82">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D82">
-        <v>0.003486082442910519</v>
+        <v>0.001523755726065583</v>
       </c>
       <c r="E82">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F82">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113468</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.0339061611456948</v>
+        <v>0.03082378285972254</v>
       </c>
       <c r="C83">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D83">
-        <v>0.003489239554125677</v>
+        <v>0.001503501663923709</v>
       </c>
       <c r="E83">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F83">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113468</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.03082378285972254</v>
+        <v>0.02774140457375029</v>
       </c>
       <c r="C84">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D84">
-        <v>0.003492345160392814</v>
+        <v>0.001484070009330154</v>
       </c>
       <c r="E84">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F84">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113468</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.02774140457375029</v>
+        <v>0.02465902628777803</v>
       </c>
       <c r="C85">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D85">
-        <v>0.003495399318268038</v>
+        <v>0.001465401916645761</v>
       </c>
       <c r="E85">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F85">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113468</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.02465902628777803</v>
+        <v>0.02157664800180578</v>
       </c>
       <c r="C86">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D86">
-        <v>0.003498402084815833</v>
+        <v>0.001447443425306253</v>
       </c>
       <c r="E86">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F86">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113468</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.02157664800180578</v>
+        <v>0.01849426971583353</v>
       </c>
       <c r="C87">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D87">
-        <v>0.003501353517612606</v>
+        <v>0.001430144920616848</v>
       </c>
       <c r="E87">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F87">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113468</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.01849426971583353</v>
+        <v>0.01541189142986127</v>
       </c>
       <c r="C88">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D88">
-        <v>0.00350425367475143</v>
+        <v>0.001413460672358973</v>
       </c>
       <c r="E88">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F88">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113468</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.01541189142986127</v>
+        <v>0.01232951314388902</v>
       </c>
       <c r="C89">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D89">
-        <v>0.003507102614847016</v>
+        <v>0.001397348450854806</v>
       </c>
       <c r="E89">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F89">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113468</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.01232951314388902</v>
+        <v>0.009247134857916763</v>
       </c>
       <c r="C90">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D90">
-        <v>0.003509900397039556</v>
+        <v>0.001381769188524432</v>
       </c>
       <c r="E90">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F90">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113468</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.009247134857916763</v>
+        <v>0.006164756571944509</v>
       </c>
       <c r="C91">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D91">
-        <v>0.003512647080998577</v>
+        <v>0.001366686691809953</v>
       </c>
       <c r="E91">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F91">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113468</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.006164756571944509</v>
+        <v>0.003082378285972254</v>
       </c>
       <c r="C92">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D92">
-        <v>0.003515342726926907</v>
+        <v>0.001352067389647792</v>
       </c>
       <c r="E92">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F92">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113468</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2234,39 +2234,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.003082378285972254</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D93">
-        <v>0.003517987395565053</v>
+        <v>0.001337880112920828</v>
       </c>
       <c r="E93">
-        <v>0.006373303225696693</v>
+        <v>0.02189988709636259</v>
       </c>
       <c r="F93">
-        <v>0.004736826432130644</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>0.06349999999999999</v>
-      </c>
-      <c r="D94">
-        <v>0.003520581148193607</v>
-      </c>
-      <c r="E94">
-        <v>0.006373303225696693</v>
-      </c>
-      <c r="F94">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113468</v>
       </c>
     </row>
   </sheetData>

--- a/RegenSolver/enginefiles/solverdatageometry.xlsx
+++ b/RegenSolver/enginefiles/solverdatageometry.xlsx
@@ -511,7 +511,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001039831467954383</v>
+        <v>0.001039831467954384</v>
       </c>
       <c r="E4" t="n">
         <v>0.004178391890667165</v>
@@ -571,7 +571,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001083524138930065</v>
+        <v>0.001083524138930066</v>
       </c>
       <c r="E7" t="n">
         <v>0.004178391890667165</v>
@@ -591,7 +591,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001099021751310963</v>
+        <v>0.001099021751310964</v>
       </c>
       <c r="E8" t="n">
         <v>0.004178391890667165</v>
@@ -751,7 +751,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001246818612294248</v>
+        <v>0.001246818612294249</v>
       </c>
       <c r="E16" t="n">
         <v>0.004178391890667165</v>
@@ -931,7 +931,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001504132388730277</v>
+        <v>0.001504132388730278</v>
       </c>
       <c r="E25" t="n">
         <v>0.004178391890667165</v>
@@ -991,7 +991,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001632074052252611</v>
+        <v>0.001632074052252612</v>
       </c>
       <c r="E28" t="n">
         <v>0.004178391890667165</v>
@@ -1011,7 +1011,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001682506390236882</v>
+        <v>0.001682506390236883</v>
       </c>
       <c r="E29" t="n">
         <v>0.004178391890667165</v>
@@ -1031,7 +1031,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.001737942349756809</v>
+        <v>0.00173794234975681</v>
       </c>
       <c r="E30" t="n">
         <v>0.004178391890667165</v>
@@ -1071,7 +1071,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001864603711499552</v>
+        <v>0.001864603711499551</v>
       </c>
       <c r="E32" t="n">
         <v>0.004178391890667165</v>
@@ -1091,7 +1091,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.001859118890217871</v>
+        <v>0.001859118890217872</v>
       </c>
       <c r="E33" t="n">
         <v>0.004178391890667165</v>
@@ -1111,7 +1111,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.001853906485555979</v>
+        <v>0.00185390648555598</v>
       </c>
       <c r="E34" t="n">
         <v>0.004178391890667165</v>
@@ -1131,7 +1131,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001848952776248894</v>
+        <v>0.001848952776248895</v>
       </c>
       <c r="E35" t="n">
         <v>0.004178391890667165</v>
@@ -1211,7 +1211,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.001831464866275816</v>
+        <v>0.001831464866275817</v>
       </c>
       <c r="E39" t="n">
         <v>0.004178391890667165</v>
@@ -1271,7 +1271,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.00182046261277237</v>
+        <v>0.001820462612772369</v>
       </c>
       <c r="E42" t="n">
         <v>0.004178391890667165</v>
@@ -1291,7 +1291,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.001817142027158456</v>
+        <v>0.001817142027158457</v>
       </c>
       <c r="E43" t="n">
         <v>0.004178391890667165</v>
@@ -1311,7 +1311,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.001813979561138683</v>
+        <v>0.001813979561138684</v>
       </c>
       <c r="E44" t="n">
         <v>0.004178391890667165</v>
@@ -1371,7 +1371,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.001805359442844489</v>
+        <v>0.00180535944284449</v>
       </c>
       <c r="E47" t="n">
         <v>0.004178391890667165</v>
@@ -1471,7 +1471,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.001793462155542769</v>
+        <v>0.001793462155542758</v>
       </c>
       <c r="E52" t="n">
         <v>0.004178391890667165</v>
@@ -1491,7 +1491,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.001791398755810868</v>
+        <v>0.001791398755810874</v>
       </c>
       <c r="E53" t="n">
         <v>0.004178391890667165</v>
@@ -1511,7 +1511,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.001789428595802843</v>
+        <v>0.001789428595802846</v>
       </c>
       <c r="E54" t="n">
         <v>0.004178391890667165</v>
@@ -1531,7 +1531,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.001787547073870774</v>
+        <v>0.001787547073870777</v>
       </c>
       <c r="E55" t="n">
         <v>0.004178391890667165</v>
@@ -1551,7 +1551,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.001785750062362205</v>
+        <v>0.001785750062362215</v>
       </c>
       <c r="E56" t="n">
         <v>0.004178391890667165</v>
@@ -1571,7 +1571,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.001784056967018069</v>
+        <v>0.001784056967018065</v>
       </c>
       <c r="E57" t="n">
         <v>0.004178391890667165</v>
@@ -1591,13 +1591,13 @@
         <v>0.04444927937816039</v>
       </c>
       <c r="D58" t="n">
-        <v>0.001785377217166122</v>
+        <v>0.001785377217166127</v>
       </c>
       <c r="E58" t="n">
         <v>0.004178316427324598</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001420109332549778</v>
+        <v>0.001420109332549773</v>
       </c>
     </row>
     <row r="59">
@@ -1611,13 +1611,13 @@
         <v>0.0443448098807399</v>
       </c>
       <c r="D59" t="n">
-        <v>0.00181178445524759</v>
+        <v>0.001811784455247589</v>
       </c>
       <c r="E59" t="n">
         <v>0.004167376407137251</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00148987266446349</v>
+        <v>0.001489872664463494</v>
       </c>
     </row>
     <row r="60">
@@ -1637,7 +1637,7 @@
         <v>0.004138645898001688</v>
       </c>
       <c r="F60" t="n">
-        <v>0.001549943656007687</v>
+        <v>0.00154994365600769</v>
       </c>
     </row>
     <row r="61">
@@ -1651,13 +1651,13 @@
         <v>0.04363641637848906</v>
       </c>
       <c r="D61" t="n">
-        <v>0.001846911120492704</v>
+        <v>0.001846911120492703</v>
       </c>
       <c r="E61" t="n">
         <v>0.004093193613053184</v>
       </c>
       <c r="F61" t="n">
-        <v>0.001599551906179234</v>
+        <v>0.001599551906179228</v>
       </c>
     </row>
     <row r="62">
@@ -1671,13 +1671,13 @@
         <v>0.04305290329104577</v>
       </c>
       <c r="D62" t="n">
-        <v>0.001855803798064163</v>
+        <v>0.001855803798064164</v>
       </c>
       <c r="E62" t="n">
         <v>0.004032088265427006</v>
       </c>
       <c r="F62" t="n">
-        <v>0.001638103370397734</v>
+        <v>0.001638103370397732</v>
       </c>
     </row>
     <row r="63">
@@ -1691,13 +1691,13 @@
         <v>0.04233011992431529</v>
       </c>
       <c r="D63" t="n">
-        <v>0.00185906526097772</v>
+        <v>0.001859065260977718</v>
       </c>
       <c r="E63" t="n">
         <v>0.003956398568258427</v>
       </c>
       <c r="F63" t="n">
-        <v>0.001665186774493829</v>
+        <v>0.001665186774493825</v>
       </c>
     </row>
     <row r="64">
@@ -1717,7 +1717,7 @@
         <v>0.003867193234682715</v>
       </c>
       <c r="F64" t="n">
-        <v>0.001680577586021548</v>
+        <v>0.001680577586021544</v>
       </c>
     </row>
     <row r="65">
@@ -1731,13 +1731,13 @@
         <v>0.04050756418776686</v>
       </c>
       <c r="D65" t="n">
-        <v>0.001849289018713738</v>
+        <v>0.001849289018713737</v>
       </c>
       <c r="E65" t="n">
         <v>0.003765540977835144</v>
       </c>
       <c r="F65" t="n">
-        <v>0.001684239600379689</v>
+        <v>0.001684239600379695</v>
       </c>
     </row>
     <row r="66">
@@ -1751,13 +1751,13 @@
         <v>0.03942820273533598</v>
       </c>
       <c r="D66" t="n">
-        <v>0.00183662208075258</v>
+        <v>0.001836622080752579</v>
       </c>
       <c r="E66" t="n">
         <v>0.003652510510850982</v>
       </c>
       <c r="F66" t="n">
-        <v>0.001676324243435297</v>
+        <v>0.001676324243435302</v>
       </c>
     </row>
     <row r="67">
@@ -1777,7 +1777,7 @@
         <v>0.003529170546865499</v>
       </c>
       <c r="F67" t="n">
-        <v>0.001657167754429081</v>
+        <v>0.001657167754429086</v>
       </c>
     </row>
     <row r="68">
@@ -1797,7 +1797,7 @@
         <v>0.003396589799013969</v>
       </c>
       <c r="F68" t="n">
-        <v>0.001627286512636495</v>
+        <v>0.001627286512636494</v>
       </c>
     </row>
     <row r="69">
@@ -1811,13 +1811,13 @@
         <v>0.03564024954573906</v>
       </c>
       <c r="D69" t="n">
-        <v>0.001770514869059102</v>
+        <v>0.001770514869059101</v>
       </c>
       <c r="E69" t="n">
         <v>0.003255836980431659</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001587370930568905</v>
+        <v>0.001587370930568902</v>
       </c>
     </row>
     <row r="70">
@@ -1837,7 +1837,7 @@
         <v>0.003107980804253842</v>
       </c>
       <c r="F70" t="n">
-        <v>0.001538278607546713</v>
+        <v>0.001538278607546721</v>
       </c>
     </row>
     <row r="71">
@@ -1851,13 +1851,13 @@
         <v>0.03275877797935623</v>
       </c>
       <c r="D71" t="n">
-        <v>0.001706571203959007</v>
+        <v>0.001706571203959006</v>
       </c>
       <c r="E71" t="n">
         <v>0.002954089983615786</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00148102792319281</v>
+        <v>0.001481027923192809</v>
       </c>
     </row>
     <row r="72">
@@ -1871,13 +1871,13 @@
         <v>0.03124180774024994</v>
       </c>
       <c r="D72" t="n">
-        <v>0.001670121440069031</v>
+        <v>0.001670121440069029</v>
       </c>
       <c r="E72" t="n">
         <v>0.002795233231652765</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001416794179055603</v>
+        <v>0.001416794179055609</v>
       </c>
     </row>
     <row r="73">
@@ -1897,7 +1897,7 @@
         <v>0.002632479261500047</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001346912302953881</v>
+        <v>0.001346912302953879</v>
       </c>
     </row>
     <row r="74">
@@ -1911,7 +1911,7 @@
         <v>0.0281064256436753</v>
       </c>
       <c r="D74" t="n">
-        <v>0.001592187011633123</v>
+        <v>0.001592187011633121</v>
       </c>
       <c r="E74" t="n">
         <v>0.002466896786292902</v>
@@ -1937,7 +1937,7 @@
         <v>0.002299554519166604</v>
       </c>
       <c r="F75" t="n">
-        <v>0.001196480795900494</v>
+        <v>0.0011964807959005</v>
       </c>
     </row>
     <row r="76">
@@ -1951,13 +1951,13 @@
         <v>0.02490436683865726</v>
       </c>
       <c r="D76" t="n">
-        <v>0.001517117403260645</v>
+        <v>0.001517117403260644</v>
       </c>
       <c r="E76" t="n">
         <v>0.002131577972352662</v>
       </c>
       <c r="F76" t="n">
-        <v>0.001119812745245546</v>
+        <v>0.001119812745245552</v>
       </c>
     </row>
     <row r="77">
@@ -1971,7 +1971,7 @@
         <v>0.02333330340719384</v>
       </c>
       <c r="D77" t="n">
-        <v>0.001489203560111872</v>
+        <v>0.001489203560111871</v>
       </c>
       <c r="E77" t="n">
         <v>0.001967056594532361</v>
@@ -1997,7 +1997,7 @@
         <v>0.001814435338922724</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0009885274879492295</v>
+        <v>0.0009885274879492289</v>
       </c>
     </row>
     <row r="79">
@@ -2011,13 +2011,13 @@
         <v>0.02061605744940702</v>
       </c>
       <c r="D79" t="n">
-        <v>0.001497984638019908</v>
+        <v>0.001497984638019907</v>
       </c>
       <c r="E79" t="n">
         <v>0.001682507263233039</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0009518787352771742</v>
+        <v>0.0009518787352771728</v>
       </c>
     </row>
     <row r="80">
@@ -2037,7 +2037,7 @@
         <v>0.0015800654251726</v>
       </c>
       <c r="F80" t="n">
-        <v>0.000949677314828533</v>
+        <v>0.0009496773148285365</v>
       </c>
     </row>
     <row r="81">
@@ -2051,13 +2051,13 @@
         <v>0.0190251028048706</v>
       </c>
       <c r="D81" t="n">
-        <v>0.00170563575787317</v>
+        <v>0.001705635757873169</v>
       </c>
       <c r="E81" t="n">
         <v>0.0015159028824507</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0009994188935763611</v>
+        <v>0.0009994188935763594</v>
       </c>
     </row>
     <row r="82">
@@ -2071,13 +2071,13 @@
         <v>0.0188717218143394</v>
       </c>
       <c r="D82" t="n">
-        <v>0.001962459673017691</v>
+        <v>0.00196245967301769</v>
       </c>
       <c r="E82" t="n">
         <v>0.001499840862682262</v>
       </c>
       <c r="F82" t="n">
-        <v>0.001123822223401186</v>
+        <v>0.001123822223401187</v>
       </c>
     </row>
     <row r="83">
@@ -2091,13 +2091,13 @@
         <v>0.01967041300129275</v>
       </c>
       <c r="D83" t="n">
-        <v>0.002456070048948607</v>
+        <v>0.002456070048948603</v>
       </c>
       <c r="E83" t="n">
         <v>0.001583479608196248</v>
       </c>
       <c r="F83" t="n">
-        <v>0.001403790571722095</v>
+        <v>0.001403790571722092</v>
       </c>
     </row>
     <row r="84">
@@ -2111,13 +2111,13 @@
         <v>0.02082046395150536</v>
       </c>
       <c r="D84" t="n">
-        <v>0.002951098937024674</v>
+        <v>0.002951098937024665</v>
       </c>
       <c r="E84" t="n">
         <v>0.001703912662077644</v>
       </c>
       <c r="F84" t="n">
-        <v>0.001721979609326527</v>
+        <v>0.001721979609326519</v>
       </c>
     </row>
     <row r="85">
@@ -2131,13 +2131,13 @@
         <v>0.02195965828205469</v>
       </c>
       <c r="D85" t="n">
-        <v>0.00338979158874217</v>
+        <v>0.003389791588742159</v>
       </c>
       <c r="E85" t="n">
         <v>0.001823208813406474</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002020777397808899</v>
+        <v>0.002020777397808894</v>
       </c>
     </row>
     <row r="86">
@@ -2151,13 +2151,13 @@
         <v>0.02308721242232885</v>
       </c>
       <c r="D86" t="n">
-        <v>0.003794231641791308</v>
+        <v>0.003794231641791298</v>
       </c>
       <c r="E86" t="n">
         <v>0.001941286006860143</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002307351892794663</v>
+        <v>0.002307351892794656</v>
       </c>
     </row>
     <row r="87">
@@ -2171,13 +2171,13 @@
         <v>0.02420244551460369</v>
       </c>
       <c r="D87" t="n">
-        <v>0.004165485660936782</v>
+        <v>0.00416548566093677</v>
       </c>
       <c r="E87" t="n">
         <v>0.002058072943184505</v>
       </c>
       <c r="F87" t="n">
-        <v>0.002578807050852179</v>
+        <v>0.002578807050852176</v>
       </c>
     </row>
     <row r="88">
@@ -2191,13 +2191,13 @@
         <v>0.02530443012969335</v>
       </c>
       <c r="D88" t="n">
-        <v>0.004499799609519653</v>
+        <v>0.004499799609519648</v>
       </c>
       <c r="E88" t="n">
         <v>0.002173472502222327</v>
       </c>
       <c r="F88" t="n">
-        <v>0.002829875950110962</v>
+        <v>0.002829875950110955</v>
       </c>
     </row>
     <row r="89">
@@ -2211,13 +2211,13 @@
         <v>0.0263923313504976</v>
       </c>
       <c r="D89" t="n">
-        <v>0.00479250035856558</v>
+        <v>0.004792500358565568</v>
       </c>
       <c r="E89" t="n">
         <v>0.002287397251659328</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003054880095184298</v>
+        <v>0.003054880095184295</v>
       </c>
     </row>
     <row r="90">
@@ -2231,13 +2231,13 @@
         <v>0.0274650432566198</v>
       </c>
       <c r="D90" t="n">
-        <v>0.005039175035061339</v>
+        <v>0.005039175035061326</v>
       </c>
       <c r="E90" t="n">
         <v>0.002399731379782387</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003248326963537547</v>
+        <v>0.003248326963537539</v>
       </c>
     </row>
     <row r="91">
@@ -2251,13 +2251,13 @@
         <v>0.02852134102312109</v>
       </c>
       <c r="D91" t="n">
-        <v>0.005236455053244697</v>
+        <v>0.005236455053244688</v>
       </c>
       <c r="E91" t="n">
         <v>0.002510346623223845</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003405411242743307</v>
+        <v>0.003405411242743294</v>
       </c>
     </row>
     <row r="92">
@@ -2271,13 +2271,13 @@
         <v>0.02955986449889145</v>
       </c>
       <c r="D92" t="n">
-        <v>0.005382347763785374</v>
+        <v>0.005382347763785354</v>
       </c>
       <c r="E92" t="n">
         <v>0.002619100547292536</v>
       </c>
       <c r="F92" t="n">
-        <v>0.00352228119477662</v>
+        <v>0.00352228119477661</v>
       </c>
     </row>
     <row r="93">
@@ -2291,13 +2291,13 @@
         <v>0.03057909898616904</v>
       </c>
       <c r="D93" t="n">
-        <v>0.005476348480561193</v>
+        <v>0.005476348480561182</v>
       </c>
       <c r="E93" t="n">
         <v>0.002725834533209757</v>
       </c>
       <c r="F93" t="n">
-        <v>0.003596193233566932</v>
+        <v>0.003596193233566917</v>
       </c>
     </row>
     <row r="94">
@@ -2311,13 +2311,13 @@
         <v>0.03157725157113226</v>
       </c>
       <c r="D94" t="n">
-        <v>0.005519336480344019</v>
+        <v>0.005519336480343994</v>
       </c>
       <c r="E94" t="n">
         <v>0.00283036082747916</v>
       </c>
       <c r="F94" t="n">
-        <v>0.003625532326126989</v>
+        <v>0.003625532326126969</v>
       </c>
     </row>
     <row r="95">
@@ -2331,13 +2331,13 @@
         <v>0.03255211875205213</v>
       </c>
       <c r="D95" t="n">
-        <v>0.005513375837816614</v>
+        <v>0.005513375837816591</v>
       </c>
       <c r="E95" t="n">
         <v>0.002932448679939283</v>
       </c>
       <c r="F95" t="n">
-        <v>0.003609770571339098</v>
+        <v>0.003609770571339077</v>
       </c>
     </row>
     <row r="96">
@@ -2351,13 +2351,13 @@
         <v>0.03350126694661354</v>
       </c>
       <c r="D96" t="n">
-        <v>0.005461639473400543</v>
+        <v>0.005461639473400534</v>
       </c>
       <c r="E96" t="n">
         <v>0.00303184324644602</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003549517986982321</v>
+        <v>0.003549517986982314</v>
       </c>
     </row>
     <row r="97">
@@ -2371,13 +2371,13 @@
         <v>0.03442178371873651</v>
       </c>
       <c r="D97" t="n">
-        <v>0.005368046309129139</v>
+        <v>0.00536804630912912</v>
       </c>
       <c r="E97" t="n">
         <v>0.003128239537406277</v>
       </c>
       <c r="F97" t="n">
-        <v>0.003446346898837239</v>
+        <v>0.00344634689883723</v>
       </c>
     </row>
     <row r="98">
@@ -2391,13 +2391,13 @@
         <v>0.03531009456568125</v>
       </c>
       <c r="D98" t="n">
-        <v>0.005236964655154994</v>
+        <v>0.005236964655154979</v>
       </c>
       <c r="E98" t="n">
         <v>0.003221263231768468</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003302649562947913</v>
+        <v>0.003302649562947898</v>
       </c>
     </row>
     <row r="99">
@@ -2411,13 +2411,13 @@
         <v>0.03616166631828775</v>
       </c>
       <c r="D99" t="n">
-        <v>0.005072913326670691</v>
+        <v>0.005072913326670678</v>
       </c>
       <c r="E99" t="n">
         <v>0.003310439617168241</v>
       </c>
       <c r="F99" t="n">
-        <v>0.003121478834055085</v>
+        <v>0.00312147883405507</v>
       </c>
     </row>
     <row r="100">
@@ -2431,13 +2431,13 @@
         <v>0.03697118139716254</v>
       </c>
       <c r="D100" t="n">
-        <v>0.004880527033300381</v>
+        <v>0.004880527033300362</v>
       </c>
       <c r="E100" t="n">
         <v>0.003395211837993681</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00290657085963607</v>
+        <v>0.00290657085963606</v>
       </c>
     </row>
     <row r="101">
@@ -2451,13 +2451,13 @@
         <v>0.03773171192299029</v>
       </c>
       <c r="D101" t="n">
-        <v>0.004664235021086297</v>
+        <v>0.004664235021086285</v>
       </c>
       <c r="E101" t="n">
         <v>0.003474854408419388</v>
       </c>
       <c r="F101" t="n">
-        <v>0.002662079530907418</v>
+        <v>0.002662079530907405</v>
       </c>
     </row>
   </sheetData>

--- a/RegenSolver/enginefiles/solverdatageometry.xlsx
+++ b/RegenSolver/enginefiles/solverdatageometry.xlsx
@@ -511,7 +511,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001039831467954384</v>
+        <v>0.001039831467954383</v>
       </c>
       <c r="E4" t="n">
         <v>0.004178391890667165</v>
@@ -571,7 +571,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001083524138930066</v>
+        <v>0.001083524138930065</v>
       </c>
       <c r="E7" t="n">
         <v>0.004178391890667165</v>
@@ -591,7 +591,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001099021751310964</v>
+        <v>0.001099021751310963</v>
       </c>
       <c r="E8" t="n">
         <v>0.004178391890667165</v>
@@ -751,7 +751,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001246818612294249</v>
+        <v>0.001246818612294248</v>
       </c>
       <c r="E16" t="n">
         <v>0.004178391890667165</v>
@@ -931,7 +931,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001504132388730278</v>
+        <v>0.001504132388730277</v>
       </c>
       <c r="E25" t="n">
         <v>0.004178391890667165</v>
@@ -991,7 +991,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001632074052252612</v>
+        <v>0.001632074052252611</v>
       </c>
       <c r="E28" t="n">
         <v>0.004178391890667165</v>
@@ -1011,7 +1011,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001682506390236883</v>
+        <v>0.001682506390236882</v>
       </c>
       <c r="E29" t="n">
         <v>0.004178391890667165</v>
@@ -1031,7 +1031,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.00173794234975681</v>
+        <v>0.001737942349756809</v>
       </c>
       <c r="E30" t="n">
         <v>0.004178391890667165</v>
@@ -1071,7 +1071,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001864603711499551</v>
+        <v>0.001864603711499552</v>
       </c>
       <c r="E32" t="n">
         <v>0.004178391890667165</v>
@@ -1091,7 +1091,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.001859118890217872</v>
+        <v>0.001859118890217871</v>
       </c>
       <c r="E33" t="n">
         <v>0.004178391890667165</v>
@@ -1111,7 +1111,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.00185390648555598</v>
+        <v>0.001853906485555979</v>
       </c>
       <c r="E34" t="n">
         <v>0.004178391890667165</v>
@@ -1131,7 +1131,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001848952776248895</v>
+        <v>0.001848952776248894</v>
       </c>
       <c r="E35" t="n">
         <v>0.004178391890667165</v>
@@ -1211,7 +1211,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.001831464866275817</v>
+        <v>0.001831464866275816</v>
       </c>
       <c r="E39" t="n">
         <v>0.004178391890667165</v>
@@ -1271,7 +1271,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.001820462612772369</v>
+        <v>0.00182046261277237</v>
       </c>
       <c r="E42" t="n">
         <v>0.004178391890667165</v>
@@ -1291,7 +1291,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.001817142027158457</v>
+        <v>0.001817142027158456</v>
       </c>
       <c r="E43" t="n">
         <v>0.004178391890667165</v>
@@ -1311,7 +1311,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.001813979561138684</v>
+        <v>0.001813979561138683</v>
       </c>
       <c r="E44" t="n">
         <v>0.004178391890667165</v>
@@ -1371,7 +1371,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.00180535944284449</v>
+        <v>0.001805359442844489</v>
       </c>
       <c r="E47" t="n">
         <v>0.004178391890667165</v>
@@ -1471,7 +1471,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.001793462155542758</v>
+        <v>0.001793462155542769</v>
       </c>
       <c r="E52" t="n">
         <v>0.004178391890667165</v>
@@ -1491,7 +1491,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.001791398755810874</v>
+        <v>0.001791398755810868</v>
       </c>
       <c r="E53" t="n">
         <v>0.004178391890667165</v>
@@ -1511,7 +1511,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.001789428595802846</v>
+        <v>0.001789428595802843</v>
       </c>
       <c r="E54" t="n">
         <v>0.004178391890667165</v>
@@ -1531,7 +1531,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.001787547073870777</v>
+        <v>0.001787547073870774</v>
       </c>
       <c r="E55" t="n">
         <v>0.004178391890667165</v>
@@ -1551,7 +1551,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.001785750062362215</v>
+        <v>0.001785750062362205</v>
       </c>
       <c r="E56" t="n">
         <v>0.004178391890667165</v>
@@ -1571,7 +1571,7 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.001784056967018065</v>
+        <v>0.001784056967018069</v>
       </c>
       <c r="E57" t="n">
         <v>0.004178391890667165</v>
@@ -1591,13 +1591,13 @@
         <v>0.04444927937816039</v>
       </c>
       <c r="D58" t="n">
-        <v>0.001785377217166127</v>
+        <v>0.001785377217166122</v>
       </c>
       <c r="E58" t="n">
         <v>0.004178316427324598</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001420109332549773</v>
+        <v>0.001420109332549778</v>
       </c>
     </row>
     <row r="59">
@@ -1611,13 +1611,13 @@
         <v>0.0443448098807399</v>
       </c>
       <c r="D59" t="n">
-        <v>0.001811784455247589</v>
+        <v>0.00181178445524759</v>
       </c>
       <c r="E59" t="n">
         <v>0.004167376407137251</v>
       </c>
       <c r="F59" t="n">
-        <v>0.001489872664463494</v>
+        <v>0.00148987266446349</v>
       </c>
     </row>
     <row r="60">
@@ -1637,7 +1637,7 @@
         <v>0.004138645898001688</v>
       </c>
       <c r="F60" t="n">
-        <v>0.00154994365600769</v>
+        <v>0.001549943656007687</v>
       </c>
     </row>
     <row r="61">
@@ -1651,13 +1651,13 @@
         <v>0.04363641637848906</v>
       </c>
       <c r="D61" t="n">
-        <v>0.001846911120492703</v>
+        <v>0.001846911120492704</v>
       </c>
       <c r="E61" t="n">
         <v>0.004093193613053184</v>
       </c>
       <c r="F61" t="n">
-        <v>0.001599551906179228</v>
+        <v>0.001599551906179234</v>
       </c>
     </row>
     <row r="62">
@@ -1671,13 +1671,13 @@
         <v>0.04305290329104577</v>
       </c>
       <c r="D62" t="n">
-        <v>0.001855803798064164</v>
+        <v>0.001855803798064163</v>
       </c>
       <c r="E62" t="n">
         <v>0.004032088265427006</v>
       </c>
       <c r="F62" t="n">
-        <v>0.001638103370397732</v>
+        <v>0.001638103370397734</v>
       </c>
     </row>
     <row r="63">
@@ -1691,13 +1691,13 @@
         <v>0.04233011992431529</v>
       </c>
       <c r="D63" t="n">
-        <v>0.001859065260977718</v>
+        <v>0.00185906526097772</v>
       </c>
       <c r="E63" t="n">
         <v>0.003956398568258427</v>
       </c>
       <c r="F63" t="n">
-        <v>0.001665186774493825</v>
+        <v>0.001665186774493829</v>
       </c>
     </row>
     <row r="64">
@@ -1717,7 +1717,7 @@
         <v>0.003867193234682715</v>
       </c>
       <c r="F64" t="n">
-        <v>0.001680577586021544</v>
+        <v>0.001680577586021548</v>
       </c>
     </row>
     <row r="65">
@@ -1731,13 +1731,13 @@
         <v>0.04050756418776686</v>
       </c>
       <c r="D65" t="n">
-        <v>0.001849289018713737</v>
+        <v>0.001849289018713738</v>
       </c>
       <c r="E65" t="n">
         <v>0.003765540977835144</v>
       </c>
       <c r="F65" t="n">
-        <v>0.001684239600379695</v>
+        <v>0.001684239600379689</v>
       </c>
     </row>
     <row r="66">
@@ -1751,13 +1751,13 @@
         <v>0.03942820273533598</v>
       </c>
       <c r="D66" t="n">
-        <v>0.001836622080752579</v>
+        <v>0.00183662208075258</v>
       </c>
       <c r="E66" t="n">
         <v>0.003652510510850982</v>
       </c>
       <c r="F66" t="n">
-        <v>0.001676324243435302</v>
+        <v>0.001676324243435297</v>
       </c>
     </row>
     <row r="67">
@@ -1777,7 +1777,7 @@
         <v>0.003529170546865499</v>
       </c>
       <c r="F67" t="n">
-        <v>0.001657167754429086</v>
+        <v>0.001657167754429081</v>
       </c>
     </row>
     <row r="68">
@@ -1797,7 +1797,7 @@
         <v>0.003396589799013969</v>
       </c>
       <c r="F68" t="n">
-        <v>0.001627286512636494</v>
+        <v>0.001627286512636495</v>
       </c>
     </row>
     <row r="69">
@@ -1811,13 +1811,13 @@
         <v>0.03564024954573906</v>
       </c>
       <c r="D69" t="n">
-        <v>0.001770514869059101</v>
+        <v>0.001770514869059102</v>
       </c>
       <c r="E69" t="n">
         <v>0.003255836980431659</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001587370930568902</v>
+        <v>0.001587370930568905</v>
       </c>
     </row>
     <row r="70">
@@ -1837,7 +1837,7 @@
         <v>0.003107980804253842</v>
       </c>
       <c r="F70" t="n">
-        <v>0.001538278607546721</v>
+        <v>0.001538278607546713</v>
       </c>
     </row>
     <row r="71">
@@ -1851,13 +1851,13 @@
         <v>0.03275877797935623</v>
       </c>
       <c r="D71" t="n">
-        <v>0.001706571203959006</v>
+        <v>0.001706571203959007</v>
       </c>
       <c r="E71" t="n">
         <v>0.002954089983615786</v>
       </c>
       <c r="F71" t="n">
-        <v>0.001481027923192809</v>
+        <v>0.00148102792319281</v>
       </c>
     </row>
     <row r="72">
@@ -1871,13 +1871,13 @@
         <v>0.03124180774024994</v>
       </c>
       <c r="D72" t="n">
-        <v>0.001670121440069029</v>
+        <v>0.001670121440069031</v>
       </c>
       <c r="E72" t="n">
         <v>0.002795233231652765</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001416794179055609</v>
+        <v>0.001416794179055603</v>
       </c>
     </row>
     <row r="73">
@@ -1897,7 +1897,7 @@
         <v>0.002632479261500047</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001346912302953879</v>
+        <v>0.001346912302953881</v>
       </c>
     </row>
     <row r="74">
@@ -1911,7 +1911,7 @@
         <v>0.0281064256436753</v>
       </c>
       <c r="D74" t="n">
-        <v>0.001592187011633121</v>
+        <v>0.001592187011633123</v>
       </c>
       <c r="E74" t="n">
         <v>0.002466896786292902</v>
@@ -1937,7 +1937,7 @@
         <v>0.002299554519166604</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0011964807959005</v>
+        <v>0.001196480795900494</v>
       </c>
     </row>
     <row r="76">
@@ -1951,13 +1951,13 @@
         <v>0.02490436683865726</v>
       </c>
       <c r="D76" t="n">
-        <v>0.001517117403260644</v>
+        <v>0.001517117403260645</v>
       </c>
       <c r="E76" t="n">
         <v>0.002131577972352662</v>
       </c>
       <c r="F76" t="n">
-        <v>0.001119812745245552</v>
+        <v>0.001119812745245546</v>
       </c>
     </row>
     <row r="77">
@@ -1971,7 +1971,7 @@
         <v>0.02333330340719384</v>
       </c>
       <c r="D77" t="n">
-        <v>0.001489203560111871</v>
+        <v>0.001489203560111872</v>
       </c>
       <c r="E77" t="n">
         <v>0.001967056594532361</v>
@@ -1997,7 +1997,7 @@
         <v>0.001814435338922724</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0009885274879492289</v>
+        <v>0.0009885274879492295</v>
       </c>
     </row>
     <row r="79">
@@ -2011,13 +2011,13 @@
         <v>0.02061605744940702</v>
       </c>
       <c r="D79" t="n">
-        <v>0.001497984638019907</v>
+        <v>0.001497984638019908</v>
       </c>
       <c r="E79" t="n">
         <v>0.001682507263233039</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0009518787352771728</v>
+        <v>0.0009518787352771742</v>
       </c>
     </row>
     <row r="80">
@@ -2037,7 +2037,7 @@
         <v>0.0015800654251726</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0009496773148285365</v>
+        <v>0.000949677314828533</v>
       </c>
     </row>
     <row r="81">
@@ -2051,13 +2051,13 @@
         <v>0.0190251028048706</v>
       </c>
       <c r="D81" t="n">
-        <v>0.001705635757873169</v>
+        <v>0.00170563575787317</v>
       </c>
       <c r="E81" t="n">
         <v>0.0015159028824507</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0009994188935763594</v>
+        <v>0.0009994188935763611</v>
       </c>
     </row>
     <row r="82">
@@ -2071,13 +2071,13 @@
         <v>0.0188717218143394</v>
       </c>
       <c r="D82" t="n">
-        <v>0.00196245967301769</v>
+        <v>0.001962459673017691</v>
       </c>
       <c r="E82" t="n">
         <v>0.001499840862682262</v>
       </c>
       <c r="F82" t="n">
-        <v>0.001123822223401187</v>
+        <v>0.001123822223401186</v>
       </c>
     </row>
     <row r="83">
@@ -2091,13 +2091,13 @@
         <v>0.01967041300129275</v>
       </c>
       <c r="D83" t="n">
-        <v>0.002456070048948603</v>
+        <v>0.002456070048948607</v>
       </c>
       <c r="E83" t="n">
         <v>0.001583479608196248</v>
       </c>
       <c r="F83" t="n">
-        <v>0.001403790571722092</v>
+        <v>0.001403790571722095</v>
       </c>
     </row>
     <row r="84">
@@ -2111,13 +2111,13 @@
         <v>0.02082046395150536</v>
       </c>
       <c r="D84" t="n">
-        <v>0.002951098937024665</v>
+        <v>0.002951098937024674</v>
       </c>
       <c r="E84" t="n">
         <v>0.001703912662077644</v>
       </c>
       <c r="F84" t="n">
-        <v>0.001721979609326519</v>
+        <v>0.001721979609326527</v>
       </c>
     </row>
     <row r="85">
@@ -2131,13 +2131,13 @@
         <v>0.02195965828205469</v>
       </c>
       <c r="D85" t="n">
-        <v>0.003389791588742159</v>
+        <v>0.00338979158874217</v>
       </c>
       <c r="E85" t="n">
         <v>0.001823208813406474</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002020777397808894</v>
+        <v>0.002020777397808899</v>
       </c>
     </row>
     <row r="86">
@@ -2151,13 +2151,13 @@
         <v>0.02308721242232885</v>
       </c>
       <c r="D86" t="n">
-        <v>0.003794231641791298</v>
+        <v>0.003794231641791308</v>
       </c>
       <c r="E86" t="n">
         <v>0.001941286006860143</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002307351892794656</v>
+        <v>0.002307351892794663</v>
       </c>
     </row>
     <row r="87">
@@ -2171,13 +2171,13 @@
         <v>0.02420244551460369</v>
       </c>
       <c r="D87" t="n">
-        <v>0.00416548566093677</v>
+        <v>0.004165485660936782</v>
       </c>
       <c r="E87" t="n">
         <v>0.002058072943184505</v>
       </c>
       <c r="F87" t="n">
-        <v>0.002578807050852176</v>
+        <v>0.002578807050852179</v>
       </c>
     </row>
     <row r="88">
@@ -2191,13 +2191,13 @@
         <v>0.02530443012969335</v>
       </c>
       <c r="D88" t="n">
-        <v>0.004499799609519648</v>
+        <v>0.004499799609519653</v>
       </c>
       <c r="E88" t="n">
         <v>0.002173472502222327</v>
       </c>
       <c r="F88" t="n">
-        <v>0.002829875950110955</v>
+        <v>0.002829875950110962</v>
       </c>
     </row>
     <row r="89">
@@ -2211,13 +2211,13 @@
         <v>0.0263923313504976</v>
       </c>
       <c r="D89" t="n">
-        <v>0.004792500358565568</v>
+        <v>0.00479250035856558</v>
       </c>
       <c r="E89" t="n">
         <v>0.002287397251659328</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003054880095184295</v>
+        <v>0.003054880095184298</v>
       </c>
     </row>
     <row r="90">
@@ -2231,13 +2231,13 @@
         <v>0.0274650432566198</v>
       </c>
       <c r="D90" t="n">
-        <v>0.005039175035061326</v>
+        <v>0.005039175035061339</v>
       </c>
       <c r="E90" t="n">
         <v>0.002399731379782387</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003248326963537539</v>
+        <v>0.003248326963537547</v>
       </c>
     </row>
     <row r="91">
@@ -2251,13 +2251,13 @@
         <v>0.02852134102312109</v>
       </c>
       <c r="D91" t="n">
-        <v>0.005236455053244688</v>
+        <v>0.005236455053244697</v>
       </c>
       <c r="E91" t="n">
         <v>0.002510346623223845</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003405411242743294</v>
+        <v>0.003405411242743307</v>
       </c>
     </row>
     <row r="92">
@@ -2271,13 +2271,13 @@
         <v>0.02955986449889145</v>
       </c>
       <c r="D92" t="n">
-        <v>0.005382347763785354</v>
+        <v>0.005382347763785374</v>
       </c>
       <c r="E92" t="n">
         <v>0.002619100547292536</v>
       </c>
       <c r="F92" t="n">
-        <v>0.00352228119477661</v>
+        <v>0.00352228119477662</v>
       </c>
     </row>
     <row r="93">
@@ -2291,13 +2291,13 @@
         <v>0.03057909898616904</v>
       </c>
       <c r="D93" t="n">
-        <v>0.005476348480561182</v>
+        <v>0.005476348480561193</v>
       </c>
       <c r="E93" t="n">
         <v>0.002725834533209757</v>
       </c>
       <c r="F93" t="n">
-        <v>0.003596193233566917</v>
+        <v>0.003596193233566932</v>
       </c>
     </row>
     <row r="94">
@@ -2311,13 +2311,13 @@
         <v>0.03157725157113226</v>
       </c>
       <c r="D94" t="n">
-        <v>0.005519336480343994</v>
+        <v>0.005519336480344019</v>
       </c>
       <c r="E94" t="n">
         <v>0.00283036082747916</v>
       </c>
       <c r="F94" t="n">
-        <v>0.003625532326126969</v>
+        <v>0.003625532326126989</v>
       </c>
     </row>
     <row r="95">
@@ -2331,13 +2331,13 @@
         <v>0.03255211875205213</v>
       </c>
       <c r="D95" t="n">
-        <v>0.005513375837816591</v>
+        <v>0.005513375837816614</v>
       </c>
       <c r="E95" t="n">
         <v>0.002932448679939283</v>
       </c>
       <c r="F95" t="n">
-        <v>0.003609770571339077</v>
+        <v>0.003609770571339098</v>
       </c>
     </row>
     <row r="96">
@@ -2351,13 +2351,13 @@
         <v>0.03350126694661354</v>
       </c>
       <c r="D96" t="n">
-        <v>0.005461639473400534</v>
+        <v>0.005461639473400543</v>
       </c>
       <c r="E96" t="n">
         <v>0.00303184324644602</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003549517986982314</v>
+        <v>0.003549517986982321</v>
       </c>
     </row>
     <row r="97">
@@ -2371,13 +2371,13 @@
         <v>0.03442178371873651</v>
       </c>
       <c r="D97" t="n">
-        <v>0.00536804630912912</v>
+        <v>0.005368046309129139</v>
       </c>
       <c r="E97" t="n">
         <v>0.003128239537406277</v>
       </c>
       <c r="F97" t="n">
-        <v>0.00344634689883723</v>
+        <v>0.003446346898837239</v>
       </c>
     </row>
     <row r="98">
@@ -2391,13 +2391,13 @@
         <v>0.03531009456568125</v>
       </c>
       <c r="D98" t="n">
-        <v>0.005236964655154979</v>
+        <v>0.005236964655154994</v>
       </c>
       <c r="E98" t="n">
         <v>0.003221263231768468</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003302649562947898</v>
+        <v>0.003302649562947913</v>
       </c>
     </row>
     <row r="99">
@@ -2411,13 +2411,13 @@
         <v>0.03616166631828775</v>
       </c>
       <c r="D99" t="n">
-        <v>0.005072913326670678</v>
+        <v>0.005072913326670691</v>
       </c>
       <c r="E99" t="n">
         <v>0.003310439617168241</v>
       </c>
       <c r="F99" t="n">
-        <v>0.00312147883405507</v>
+        <v>0.003121478834055085</v>
       </c>
     </row>
     <row r="100">
@@ -2431,13 +2431,13 @@
         <v>0.03697118139716254</v>
       </c>
       <c r="D100" t="n">
-        <v>0.004880527033300362</v>
+        <v>0.004880527033300381</v>
       </c>
       <c r="E100" t="n">
         <v>0.003395211837993681</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00290657085963606</v>
+        <v>0.00290657085963607</v>
       </c>
     </row>
     <row r="101">
@@ -2451,13 +2451,13 @@
         <v>0.03773171192299029</v>
       </c>
       <c r="D101" t="n">
-        <v>0.004664235021086285</v>
+        <v>0.004664235021086297</v>
       </c>
       <c r="E101" t="n">
         <v>0.003474854408419388</v>
       </c>
       <c r="F101" t="n">
-        <v>0.002662079530907405</v>
+        <v>0.002662079530907418</v>
       </c>
     </row>
   </sheetData>
